--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_18_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_18_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1883304.865504666</v>
+        <v>1879541.509890651</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6333674.3917708</v>
+        <v>6333674.391770796</v>
       </c>
     </row>
     <row r="9">
@@ -1372,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>316.2740329964624</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>314.7995830367791</v>
       </c>
       <c r="E11" t="n">
-        <v>323.4140627900581</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>43.63021173333283</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>56.58740775148629</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>146.5112914528973</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>186.262465608774</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>271.898606744797</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>323.4140627900581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>83.49123663783189</v>
       </c>
       <c r="C12" t="n">
-        <v>82.3605536767877</v>
+        <v>82.36055367678887</v>
       </c>
       <c r="D12" t="n">
         <v>62.00094324601463</v>
@@ -1505,7 +1505,7 @@
         <v>104.5017395264941</v>
       </c>
       <c r="U12" t="n">
-        <v>141.1113116019297</v>
+        <v>141.1113116019301</v>
       </c>
       <c r="V12" t="n">
         <v>153.5274671539238</v>
@@ -1530,25 +1530,25 @@
         <v>116.5688040456684</v>
       </c>
       <c r="C13" t="n">
-        <v>100.4153770486221</v>
+        <v>101.7159322959508</v>
       </c>
       <c r="D13" t="n">
         <v>87.28964750779056</v>
       </c>
       <c r="E13" t="n">
-        <v>87.21608956066967</v>
+        <v>6.355520597084547</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>98.96797721037781</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>79.87807784015254</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>40.424921208493</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>119.773133571201</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>163.0864650778911</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>215.7527383803918</v>
       </c>
       <c r="V13" t="n">
         <v>196.5324172686642</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>213.7099635894143</v>
       </c>
       <c r="X13" t="n">
-        <v>164.9523845361269</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>154.0938061128032</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>323.4140627900581</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>322.4566120233789</v>
       </c>
       <c r="D14" t="n">
-        <v>77.00264875777741</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>323.4140627900582</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>323.4140627900582</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>235.4157285475924</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>56.58740775148629</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>146.5112914528973</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,10 +1669,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>300.5019102226756</v>
+        <v>82.72185806777883</v>
       </c>
       <c r="X14" t="n">
-        <v>318.7709445575539</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>82.36055367678887</v>
       </c>
       <c r="D15" t="n">
-        <v>62.00094324601463</v>
+        <v>62.00094324601363</v>
       </c>
       <c r="E15" t="n">
         <v>68.29489152150131</v>
@@ -1742,7 +1742,7 @@
         <v>104.5017395264941</v>
       </c>
       <c r="U15" t="n">
-        <v>141.1113116019286</v>
+        <v>141.1113116019297</v>
       </c>
       <c r="V15" t="n">
         <v>153.5274671539238</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>116.5688040456684</v>
+        <v>8.037930150172356</v>
       </c>
       <c r="C16" t="n">
-        <v>101.7159322959508</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>88.96554098043694</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>79.87807784015254</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>40.424921208493</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>163.0864650778911</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>215.7527383803918</v>
       </c>
       <c r="V16" t="n">
         <v>196.5324172686642</v>
       </c>
       <c r="W16" t="n">
-        <v>164.0411618620796</v>
+        <v>213.7099635894143</v>
       </c>
       <c r="X16" t="n">
         <v>164.9523845361269</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>154.0938061128032</v>
       </c>
     </row>
     <row r="17">
@@ -1849,16 +1849,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>314.7995830367791</v>
       </c>
       <c r="E17" t="n">
-        <v>323.4140627900584</v>
+        <v>16.86240347485628</v>
       </c>
       <c r="F17" t="n">
-        <v>323.4140627900584</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>218.9160044823843</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>56.58740775148629</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>146.5112914528973</v>
@@ -1903,13 +1903,13 @@
         <v>186.262465608774</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>271.898606744797</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>318.7709445575539</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1937,10 +1937,10 @@
         <v>56.40035359697968</v>
       </c>
       <c r="G18" t="n">
-        <v>51.09828471220879</v>
+        <v>51.09828471220878</v>
       </c>
       <c r="H18" t="n">
-        <v>11.22244430040397</v>
+        <v>11.22244430040396</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>48.70631724095914</v>
+        <v>48.70631724095898</v>
       </c>
       <c r="T18" t="n">
-        <v>104.5017395264941</v>
+        <v>104.5017395264939</v>
       </c>
       <c r="U18" t="n">
-        <v>141.1113116019297</v>
+        <v>141.1113116019293</v>
       </c>
       <c r="V18" t="n">
         <v>153.5274671539238</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>116.5688040456684</v>
+        <v>23.1231260691132</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>87.28964750779056</v>
       </c>
       <c r="E19" t="n">
-        <v>87.21608956066967</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>88.96554098043694</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>79.87807784015254</v>
       </c>
       <c r="I19" t="n">
-        <v>40.424921208493</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>19.16645618899275</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>119.773133571201</v>
@@ -2067,7 +2067,7 @@
         <v>213.7099635894143</v>
       </c>
       <c r="X19" t="n">
-        <v>2.901423968923396</v>
+        <v>164.9523845361269</v>
       </c>
       <c r="Y19" t="n">
         <v>154.0938061128032</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>307.775259072866</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>323.4140627900583</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>146.5112914528973</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>186.262465608774</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>271.898606744797</v>
       </c>
       <c r="W20" t="n">
         <v>300.5019102226756</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>26.51695805645607</v>
       </c>
       <c r="Y20" t="n">
         <v>323.4140627900583</v>
@@ -2174,10 +2174,10 @@
         <v>56.40035359697968</v>
       </c>
       <c r="G21" t="n">
-        <v>51.09828471220879</v>
+        <v>51.09828471220878</v>
       </c>
       <c r="H21" t="n">
-        <v>11.22244430040397</v>
+        <v>11.22244430040396</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>48.70631724095892</v>
+        <v>48.70631724095898</v>
       </c>
       <c r="T21" t="n">
-        <v>104.5017395264941</v>
+        <v>104.5017395264939</v>
       </c>
       <c r="U21" t="n">
-        <v>141.1113116019295</v>
+        <v>141.1113116019299</v>
       </c>
       <c r="V21" t="n">
         <v>153.5274671539238</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>116.5688040456684</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>19.16645618899275</v>
       </c>
       <c r="S22" t="n">
-        <v>72.55896355822955</v>
+        <v>119.773133571201</v>
       </c>
       <c r="T22" t="n">
         <v>163.0864650778911</v>
@@ -2301,10 +2301,10 @@
         <v>196.5324172686642</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>213.7099635894143</v>
       </c>
       <c r="X22" t="n">
-        <v>164.9523845361269</v>
+        <v>20.59705497941007</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>329.7026637955631</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>322.4566120233789</v>
       </c>
       <c r="D23" t="n">
         <v>314.7995830367791</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>331.7705551759011</v>
       </c>
       <c r="F23" t="n">
-        <v>345.9383596266022</v>
+        <v>95.87402287737747</v>
       </c>
       <c r="G23" t="n">
-        <v>340.4239659699879</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>235.4157285475924</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>56.58740775148629</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>146.5112914528973</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>186.262465608774</v>
       </c>
       <c r="V23" t="n">
-        <v>256.8843994322765</v>
+        <v>271.898606744797</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>300.5019102226756</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>325.738667529885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2456,7 +2456,7 @@
         <v>207.8984460606495</v>
       </c>
       <c r="V24" t="n">
-        <v>220.3146016126438</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W24" t="n">
         <v>227.816073408046</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>389.2437464820987</v>
+        <v>388.7305021993337</v>
       </c>
       <c r="D26" t="n">
         <v>381.5867174954989</v>
@@ -2566,13 +2566,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>302.2028630063123</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>123.3745422102061</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>213.2984259116172</v>
       </c>
       <c r="U26" t="n">
-        <v>253.0496000674938</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>4.622071139724214</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0.6856197739274731</v>
       </c>
       <c r="C28" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>101.3522699060419</v>
+        <v>146.6652122988724</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>229.873599536611</v>
       </c>
       <c r="U28" t="n">
         <v>282.5398728391116</v>
@@ -2778,7 +2778,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>155.2453451346377</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>159.216706655413</v>
       </c>
     </row>
     <row r="30">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>61.39724142508716</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>85.95359064771259</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>229.873599536611</v>
+        <v>193.8684931050226</v>
       </c>
       <c r="U31" t="n">
         <v>282.5398728391116</v>
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>339.4243015878903</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>213.928921071023</v>
       </c>
       <c r="D32" t="n">
         <v>324.5212208291064</v>
       </c>
       <c r="E32" t="n">
-        <v>341.4921929682283</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>200.6149088006903</v>
+        <v>245.1373663399197</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.3090455438136</v>
+        <v>66.30904554381357</v>
       </c>
       <c r="T32" t="n">
         <v>156.2329292452246</v>
@@ -3088,16 +3088,16 @@
         <v>195.9841034011013</v>
       </c>
       <c r="V32" t="n">
-        <v>281.6202445371242</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>310.2235480150028</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>328.4925823498812</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>335.4603053222123</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>111.4375700882781</v>
       </c>
       <c r="D34" t="n">
-        <v>97.01128530011786</v>
+        <v>97.01128530011785</v>
       </c>
       <c r="E34" t="n">
-        <v>96.93772735299697</v>
+        <v>96.93772735299696</v>
       </c>
       <c r="F34" t="n">
-        <v>98.68717877276424</v>
+        <v>98.68717877276423</v>
       </c>
       <c r="G34" t="n">
         <v>108.6896150027051</v>
       </c>
       <c r="H34" t="n">
-        <v>89.59971563247984</v>
+        <v>89.59971563247983</v>
       </c>
       <c r="I34" t="n">
-        <v>50.1465590008203</v>
+        <v>50.14655900082029</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>28.88809398132005</v>
+        <v>28.88809398132004</v>
       </c>
       <c r="S34" t="n">
-        <v>129.4947713635283</v>
+        <v>129.4947713635282</v>
       </c>
       <c r="T34" t="n">
         <v>172.8081028702184</v>
       </c>
       <c r="U34" t="n">
-        <v>225.4743761727189</v>
+        <v>225.4743761727185</v>
       </c>
       <c r="V34" t="n">
-        <v>206.2540550609915</v>
+        <v>206.2540550609914</v>
       </c>
       <c r="W34" t="n">
         <v>223.4316013817416</v>
@@ -3271,19 +3271,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>98.77306347884777</v>
+        <v>249.6509883579213</v>
       </c>
       <c r="E35" t="n">
-        <v>341.4921929682283</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>355.6599974189295</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>350.1456037623152</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>245.1373663399197</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>195.9841034011013</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>281.6202445371242</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>328.4925823498812</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>335.4603053222123</v>
       </c>
     </row>
     <row r="36">
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>93.21287443015919</v>
+        <v>93.21287443015918</v>
       </c>
       <c r="C36" t="n">
-        <v>92.08219146911617</v>
+        <v>92.08219146911615</v>
       </c>
       <c r="D36" t="n">
-        <v>71.72258103834193</v>
+        <v>71.72258103834191</v>
       </c>
       <c r="E36" t="n">
-        <v>78.01652931382861</v>
+        <v>78.0165293138286</v>
       </c>
       <c r="F36" t="n">
-        <v>66.12199138930698</v>
+        <v>66.12199138930697</v>
       </c>
       <c r="G36" t="n">
-        <v>60.81992250453608</v>
+        <v>60.81992250453607</v>
       </c>
       <c r="H36" t="n">
         <v>20.94408209273126</v>
@@ -3395,19 +3395,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>58.42795503328628</v>
+        <v>58.42795503328627</v>
       </c>
       <c r="T36" t="n">
         <v>114.2233773188214</v>
       </c>
       <c r="U36" t="n">
-        <v>150.8329493942568</v>
+        <v>150.8329493942569</v>
       </c>
       <c r="V36" t="n">
         <v>163.2491049462511</v>
       </c>
       <c r="W36" t="n">
-        <v>170.7505767416535</v>
+        <v>170.7505767416534</v>
       </c>
       <c r="X36" t="n">
         <v>130.3485102070959</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>126.2904418379957</v>
       </c>
       <c r="C37" t="n">
-        <v>111.4375700882781</v>
+        <v>98.46018041098944</v>
       </c>
       <c r="D37" t="n">
-        <v>97.01128530011786</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>98.68717877276424</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>50.56008449994243</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>89.59971563247984</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>28.88809398132005</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>129.4947713635283</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>172.8081028702184</v>
@@ -3483,13 +3483,13 @@
         <v>225.4743761727191</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>206.2540550609914</v>
       </c>
       <c r="W37" t="n">
         <v>223.4316013817416</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>174.6740223284542</v>
       </c>
       <c r="Y37" t="n">
         <v>163.8154439051305</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>332.1782498157062</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>324.5212208291064</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>341.4921929682283</v>
+        <v>51.56534560354578</v>
       </c>
       <c r="F38" t="n">
-        <v>355.6599974189295</v>
+        <v>355.6599974189294</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>350.1456037623151</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,16 +3556,16 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>156.2329292452246</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>195.9841034011013</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>281.6202445371242</v>
       </c>
       <c r="W38" t="n">
-        <v>37.35656293627023</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3581,25 +3581,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>93.21287443015912</v>
+        <v>93.21287443015918</v>
       </c>
       <c r="C39" t="n">
-        <v>92.08219146911617</v>
+        <v>92.08219146911615</v>
       </c>
       <c r="D39" t="n">
-        <v>71.72258103834193</v>
+        <v>71.72258103834191</v>
       </c>
       <c r="E39" t="n">
-        <v>78.01652931382861</v>
+        <v>78.0165293138286</v>
       </c>
       <c r="F39" t="n">
-        <v>66.12199138930698</v>
+        <v>66.12199138930697</v>
       </c>
       <c r="G39" t="n">
-        <v>60.81992250453609</v>
+        <v>60.81992250453607</v>
       </c>
       <c r="H39" t="n">
-        <v>20.94408209273127</v>
+        <v>20.94408209273126</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>58.42795503328628</v>
+        <v>58.42795503328627</v>
       </c>
       <c r="T39" t="n">
-        <v>114.2233773188214</v>
+        <v>114.2233773188216</v>
       </c>
       <c r="U39" t="n">
-        <v>150.832949394257</v>
+        <v>150.8329493942565</v>
       </c>
       <c r="V39" t="n">
         <v>163.2491049462511</v>
       </c>
       <c r="W39" t="n">
-        <v>170.7505767416535</v>
+        <v>170.7505767416534</v>
       </c>
       <c r="X39" t="n">
         <v>130.3485102070959</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>126.2904418379957</v>
       </c>
       <c r="C40" t="n">
         <v>111.4375700882781</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>97.01128530011785</v>
       </c>
       <c r="E40" t="n">
-        <v>96.93772735299697</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>98.68717877276424</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.6896150027051</v>
+        <v>62.81942789281194</v>
       </c>
       <c r="H40" t="n">
-        <v>89.59971563247984</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>50.1465590008203</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>28.88809398132005</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>129.4947713635283</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>172.8081028702184</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>225.4743761727191</v>
       </c>
       <c r="V40" t="n">
-        <v>206.2540550609915</v>
+        <v>206.2540550609914</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>223.4316013817416</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>174.6740223284542</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.79045866941846</v>
+        <v>163.8154439051305</v>
       </c>
     </row>
     <row r="41">
@@ -3742,19 +3742,19 @@
         <v>339.4243015878903</v>
       </c>
       <c r="C41" t="n">
-        <v>332.1782498157062</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>341.4921929682283</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>355.6599974189294</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>288.3226864493788</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>55.65278489255015</v>
+        <v>66.30904554381357</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>328.4925823498812</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>335.4603053222123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,22 +3818,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>93.21287443015919</v>
+        <v>93.21287443015918</v>
       </c>
       <c r="C42" t="n">
-        <v>92.08219146911617</v>
+        <v>92.08219146911615</v>
       </c>
       <c r="D42" t="n">
-        <v>71.72258103834193</v>
+        <v>71.72258103834191</v>
       </c>
       <c r="E42" t="n">
-        <v>78.01652931382861</v>
+        <v>78.0165293138286</v>
       </c>
       <c r="F42" t="n">
-        <v>66.12199138930698</v>
+        <v>66.12199138930697</v>
       </c>
       <c r="G42" t="n">
-        <v>60.81992250453609</v>
+        <v>60.81992250453607</v>
       </c>
       <c r="H42" t="n">
         <v>20.94408209273127</v>
@@ -3869,19 +3869,19 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>58.42795503328597</v>
+        <v>58.42795503328627</v>
       </c>
       <c r="T42" t="n">
         <v>114.2233773188214</v>
       </c>
       <c r="U42" t="n">
-        <v>150.832949394257</v>
+        <v>150.8329493942569</v>
       </c>
       <c r="V42" t="n">
         <v>163.2491049462511</v>
       </c>
       <c r="W42" t="n">
-        <v>170.7505767416535</v>
+        <v>170.7505767416534</v>
       </c>
       <c r="X42" t="n">
         <v>130.3485102070959</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>126.2904418379957</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>97.01128530011786</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>89.59971563247983</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>28.88809398132005</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>129.4947713635283</v>
+        <v>129.4947713635282</v>
       </c>
       <c r="T43" t="n">
-        <v>172.8081028702184</v>
+        <v>52.17379628519991</v>
       </c>
       <c r="U43" t="n">
         <v>225.4743761727191</v>
       </c>
       <c r="V43" t="n">
-        <v>206.2540550609915</v>
+        <v>206.2540550609914</v>
       </c>
       <c r="W43" t="n">
         <v>223.4316013817416</v>
@@ -3966,7 +3966,7 @@
         <v>174.6740223284542</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.1719155091493</v>
+        <v>163.8154439051305</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>339.4243015878903</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,13 +3988,13 @@
         <v>341.4921929682283</v>
       </c>
       <c r="F44" t="n">
-        <v>355.6599974189294</v>
+        <v>106.5037708168394</v>
       </c>
       <c r="G44" t="n">
         <v>350.1456037623151</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>245.1373663399197</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>66.30904554381357</v>
       </c>
       <c r="T44" t="n">
-        <v>4.486128230876893</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>281.6202445371242</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4055,16 +4055,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>93.21287443015916</v>
+        <v>93.21287443015918</v>
       </c>
       <c r="C45" t="n">
-        <v>92.08219146911614</v>
+        <v>92.08219146911615</v>
       </c>
       <c r="D45" t="n">
-        <v>71.7225810383419</v>
+        <v>71.72258103834191</v>
       </c>
       <c r="E45" t="n">
-        <v>78.01652931382858</v>
+        <v>78.0165293138286</v>
       </c>
       <c r="F45" t="n">
         <v>66.12199138930697</v>
@@ -4073,7 +4073,7 @@
         <v>60.81992250453607</v>
       </c>
       <c r="H45" t="n">
-        <v>20.94408209273125</v>
+        <v>20.94408209273126</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>58.42795503328625</v>
+        <v>58.42795503328627</v>
       </c>
       <c r="T45" t="n">
         <v>114.2233773188214</v>
       </c>
       <c r="U45" t="n">
-        <v>150.832949394257</v>
+        <v>150.8329493942569</v>
       </c>
       <c r="V45" t="n">
         <v>163.2491049462511</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>126.2904418379957</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>111.4375700882781</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>97.01128530011783</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>98.68717877276421</v>
+        <v>98.68717877276423</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>108.6896150027051</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>89.59971563247983</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>50.14655900082029</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>28.88809398132003</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>129.4947713635282</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>172.8081028702184</v>
       </c>
       <c r="U46" t="n">
-        <v>189.6066252927666</v>
+        <v>225.4743761727191</v>
       </c>
       <c r="V46" t="n">
         <v>206.2540550609914</v>
       </c>
       <c r="W46" t="n">
-        <v>223.4316013817416</v>
+        <v>106.4917337822397</v>
       </c>
       <c r="X46" t="n">
         <v>174.6740223284542</v>
       </c>
       <c r="Y46" t="n">
-        <v>163.8154439051305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>909.8163819263491</v>
+        <v>625.7170879703808</v>
       </c>
       <c r="C11" t="n">
-        <v>590.3476617279022</v>
+        <v>625.7170879703808</v>
       </c>
       <c r="D11" t="n">
-        <v>590.3476617279022</v>
+        <v>307.7377111655534</v>
       </c>
       <c r="E11" t="n">
-        <v>263.6667902227929</v>
+        <v>307.7377111655534</v>
       </c>
       <c r="F11" t="n">
-        <v>263.6667902227929</v>
+        <v>263.666790222793</v>
       </c>
       <c r="G11" t="n">
-        <v>263.6667902227929</v>
+        <v>263.666790222793</v>
       </c>
       <c r="H11" t="n">
-        <v>25.87312502320465</v>
+        <v>25.87312502320468</v>
       </c>
       <c r="I11" t="n">
-        <v>25.87312502320465</v>
+        <v>25.87312502320468</v>
       </c>
       <c r="J11" t="n">
-        <v>62.29792126503639</v>
+        <v>323.4507337367871</v>
       </c>
       <c r="K11" t="n">
-        <v>215.8256691392293</v>
+        <v>411.0220980088213</v>
       </c>
       <c r="L11" t="n">
-        <v>348.4518353160753</v>
+        <v>543.6482641856674</v>
       </c>
       <c r="M11" t="n">
-        <v>516.609133852895</v>
+        <v>711.8055627224869</v>
       </c>
       <c r="N11" t="n">
-        <v>690.4863687293248</v>
+        <v>885.6827975989167</v>
       </c>
       <c r="O11" t="n">
-        <v>846.0057912344059</v>
+        <v>1041.202220103998</v>
       </c>
       <c r="P11" t="n">
-        <v>1166.185713396563</v>
+        <v>1151.50879858476</v>
       </c>
       <c r="Q11" t="n">
-        <v>1217.709074717602</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="R11" t="n">
-        <v>1293.656251160232</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="S11" t="n">
-        <v>1236.497253431458</v>
+        <v>1236.49725343146</v>
       </c>
       <c r="T11" t="n">
-        <v>1236.497253431458</v>
+        <v>1088.506049943685</v>
       </c>
       <c r="U11" t="n">
-        <v>1236.497253431458</v>
+        <v>900.3621452883576</v>
       </c>
       <c r="V11" t="n">
-        <v>1236.497253431458</v>
+        <v>625.7170879703808</v>
       </c>
       <c r="W11" t="n">
-        <v>1236.497253431458</v>
+        <v>625.7170879703808</v>
       </c>
       <c r="X11" t="n">
-        <v>1236.497253431458</v>
+        <v>625.7170879703808</v>
       </c>
       <c r="Y11" t="n">
-        <v>909.8163819263491</v>
+        <v>625.7170879703808</v>
       </c>
     </row>
     <row r="12">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>360.5978432594633</v>
+        <v>360.5978432594645</v>
       </c>
       <c r="C12" t="n">
         <v>277.4053647980616</v>
@@ -5105,67 +5105,67 @@
         <v>214.7781493980468</v>
       </c>
       <c r="E12" t="n">
-        <v>145.7934104874394</v>
+        <v>145.7934104874395</v>
       </c>
       <c r="F12" t="n">
-        <v>88.82335634907612</v>
+        <v>88.82335634907615</v>
       </c>
       <c r="G12" t="n">
-        <v>37.20892734684502</v>
+        <v>37.20892734684505</v>
       </c>
       <c r="H12" t="n">
-        <v>25.87312502320465</v>
+        <v>25.87312502320468</v>
       </c>
       <c r="I12" t="n">
-        <v>25.87312502320465</v>
+        <v>25.87312502320468</v>
       </c>
       <c r="J12" t="n">
         <v>230.0708785876864</v>
       </c>
       <c r="K12" t="n">
-        <v>297.0448762862445</v>
+        <v>297.0448762862446</v>
       </c>
       <c r="L12" t="n">
-        <v>417.2093330474737</v>
+        <v>417.2093330474738</v>
       </c>
       <c r="M12" t="n">
-        <v>704.9973952818184</v>
+        <v>570.0175506085375</v>
       </c>
       <c r="N12" t="n">
-        <v>1025.177317443976</v>
+        <v>736.2357661886359</v>
       </c>
       <c r="O12" t="n">
-        <v>1162.791644456352</v>
+        <v>873.8500932010118</v>
       </c>
       <c r="P12" t="n">
-        <v>1260.672781119032</v>
+        <v>971.7312298636916</v>
       </c>
       <c r="Q12" t="n">
-        <v>1293.656251160232</v>
+        <v>1257.240898739075</v>
       </c>
       <c r="R12" t="n">
-        <v>1293.656251160232</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="S12" t="n">
-        <v>1244.45795091684</v>
+        <v>1244.457950916841</v>
       </c>
       <c r="T12" t="n">
-        <v>1138.900638263815</v>
+        <v>1138.900638263817</v>
       </c>
       <c r="U12" t="n">
-        <v>996.3639598780276</v>
+        <v>996.3639598780287</v>
       </c>
       <c r="V12" t="n">
-        <v>841.2857102275995</v>
+        <v>841.2857102276007</v>
       </c>
       <c r="W12" t="n">
-        <v>678.6302163393912</v>
+        <v>678.6302163393924</v>
       </c>
       <c r="X12" t="n">
-        <v>556.7848906679077</v>
+        <v>556.7848906679089</v>
       </c>
       <c r="Y12" t="n">
-        <v>444.9324257219198</v>
+        <v>444.932425721921</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>525.0570546960387</v>
+        <v>223.2075698725238</v>
       </c>
       <c r="C13" t="n">
-        <v>423.6273809095517</v>
+        <v>120.4642039170179</v>
       </c>
       <c r="D13" t="n">
-        <v>335.4560197905714</v>
+        <v>32.29284279803755</v>
       </c>
       <c r="E13" t="n">
-        <v>247.3589596282787</v>
+        <v>25.87312502320468</v>
       </c>
       <c r="F13" t="n">
-        <v>247.3589596282787</v>
+        <v>25.87312502320468</v>
       </c>
       <c r="G13" t="n">
-        <v>147.3913058804224</v>
+        <v>25.87312502320468</v>
       </c>
       <c r="H13" t="n">
-        <v>66.70637876915718</v>
+        <v>25.87312502320468</v>
       </c>
       <c r="I13" t="n">
-        <v>25.87312502320465</v>
+        <v>25.87312502320468</v>
       </c>
       <c r="J13" t="n">
-        <v>25.87312502320465</v>
+        <v>25.87312502320468</v>
       </c>
       <c r="K13" t="n">
-        <v>36.75561605621029</v>
+        <v>201.6106887988917</v>
       </c>
       <c r="L13" t="n">
-        <v>321.0461554351428</v>
+        <v>485.9012281778242</v>
       </c>
       <c r="M13" t="n">
-        <v>492.2098824340098</v>
+        <v>523.1974156539757</v>
       </c>
       <c r="N13" t="n">
-        <v>799.0819236665093</v>
+        <v>830.0694568864751</v>
       </c>
       <c r="O13" t="n">
-        <v>1076.027412336309</v>
+        <v>1107.014945556274</v>
       </c>
       <c r="P13" t="n">
-        <v>1293.656251160232</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="Q13" t="n">
-        <v>1293.656251160232</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="R13" t="n">
-        <v>1293.656251160232</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="S13" t="n">
-        <v>1172.673287956999</v>
+        <v>1293.656251160234</v>
       </c>
       <c r="T13" t="n">
-        <v>1007.939484848018</v>
+        <v>1128.922448051253</v>
       </c>
       <c r="U13" t="n">
-        <v>1007.939484848018</v>
+        <v>910.9903890811603</v>
       </c>
       <c r="V13" t="n">
-        <v>809.4218916473471</v>
+        <v>712.4727958804895</v>
       </c>
       <c r="W13" t="n">
-        <v>809.4218916473471</v>
+        <v>496.604145790172</v>
       </c>
       <c r="X13" t="n">
-        <v>642.8033214088351</v>
+        <v>496.604145790172</v>
       </c>
       <c r="Y13" t="n">
-        <v>642.8033214088351</v>
+        <v>340.9538365853202</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>341.4472435134772</v>
+        <v>1004.948617551988</v>
       </c>
       <c r="C14" t="n">
-        <v>341.4472435134772</v>
+        <v>679.2348680334233</v>
       </c>
       <c r="D14" t="n">
-        <v>263.6667902227929</v>
+        <v>679.2348680334233</v>
       </c>
       <c r="E14" t="n">
-        <v>263.6667902227929</v>
+        <v>352.5539965283139</v>
       </c>
       <c r="F14" t="n">
-        <v>263.6667902227929</v>
+        <v>25.87312502320465</v>
       </c>
       <c r="G14" t="n">
-        <v>263.6667902227929</v>
+        <v>25.87312502320465</v>
       </c>
       <c r="H14" t="n">
         <v>25.87312502320465</v>
@@ -5278,52 +5278,52 @@
         <v>25.87312502320465</v>
       </c>
       <c r="J14" t="n">
-        <v>62.29792126503639</v>
+        <v>323.4507337367871</v>
       </c>
       <c r="K14" t="n">
-        <v>149.8692855370706</v>
+        <v>501.6461892632549</v>
       </c>
       <c r="L14" t="n">
-        <v>470.0492076992281</v>
+        <v>634.2723554401009</v>
       </c>
       <c r="M14" t="n">
-        <v>656.1269666911926</v>
+        <v>802.4296539769205</v>
       </c>
       <c r="N14" t="n">
-        <v>976.3068888533501</v>
+        <v>976.3068888533503</v>
       </c>
       <c r="O14" t="n">
         <v>1131.826311358431</v>
       </c>
       <c r="P14" t="n">
-        <v>1242.132889839193</v>
+        <v>1242.132889839194</v>
       </c>
       <c r="Q14" t="n">
-        <v>1293.656251160232</v>
+        <v>1293.656251160233</v>
       </c>
       <c r="R14" t="n">
-        <v>1293.656251160232</v>
+        <v>1293.656251160233</v>
       </c>
       <c r="S14" t="n">
-        <v>1293.656251160232</v>
+        <v>1236.497253431459</v>
       </c>
       <c r="T14" t="n">
-        <v>1293.656251160232</v>
+        <v>1088.506049943684</v>
       </c>
       <c r="U14" t="n">
-        <v>1293.656251160232</v>
+        <v>1088.506049943684</v>
       </c>
       <c r="V14" t="n">
-        <v>1293.656251160232</v>
+        <v>1088.506049943684</v>
       </c>
       <c r="W14" t="n">
-        <v>990.1189681070248</v>
+        <v>1004.948617551988</v>
       </c>
       <c r="X14" t="n">
-        <v>668.1281150185864</v>
+        <v>1004.948617551988</v>
       </c>
       <c r="Y14" t="n">
-        <v>668.1281150185864</v>
+        <v>1004.948617551988</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>360.5978432594645</v>
+        <v>360.5978432594636</v>
       </c>
       <c r="C15" t="n">
-        <v>277.4053647980616</v>
+        <v>277.4053647980606</v>
       </c>
       <c r="D15" t="n">
-        <v>214.7781493980468</v>
+        <v>214.7781493980469</v>
       </c>
       <c r="E15" t="n">
-        <v>145.7934104874394</v>
+        <v>145.7934104874395</v>
       </c>
       <c r="F15" t="n">
-        <v>88.82335634907611</v>
+        <v>88.82335634907614</v>
       </c>
       <c r="G15" t="n">
-        <v>37.20892734684502</v>
+        <v>37.20892734684503</v>
       </c>
       <c r="H15" t="n">
         <v>25.87312502320465</v>
@@ -5357,31 +5357,31 @@
         <v>25.87312502320465</v>
       </c>
       <c r="J15" t="n">
-        <v>35.335883607959</v>
+        <v>230.0708785876864</v>
       </c>
       <c r="K15" t="n">
-        <v>102.3098813065172</v>
+        <v>298.789975420628</v>
       </c>
       <c r="L15" t="n">
-        <v>222.4743380677463</v>
+        <v>418.9544321818572</v>
       </c>
       <c r="M15" t="n">
-        <v>375.2825556288101</v>
+        <v>571.7626497429209</v>
       </c>
       <c r="N15" t="n">
-        <v>555.4152701732376</v>
+        <v>737.9808653230193</v>
       </c>
       <c r="O15" t="n">
-        <v>875.595192335395</v>
+        <v>875.5951923353952</v>
       </c>
       <c r="P15" t="n">
-        <v>973.4763289980749</v>
+        <v>973.476328998075</v>
       </c>
       <c r="Q15" t="n">
-        <v>1293.656251160232</v>
+        <v>1293.656251160233</v>
       </c>
       <c r="R15" t="n">
-        <v>1293.656251160232</v>
+        <v>1293.656251160233</v>
       </c>
       <c r="S15" t="n">
         <v>1244.45795091684</v>
@@ -5390,19 +5390,19 @@
         <v>1138.900638263815</v>
       </c>
       <c r="U15" t="n">
-        <v>996.3639598780287</v>
+        <v>996.3639598780278</v>
       </c>
       <c r="V15" t="n">
-        <v>841.2857102276007</v>
+        <v>841.2857102275997</v>
       </c>
       <c r="W15" t="n">
-        <v>678.6302163393924</v>
+        <v>678.6302163393914</v>
       </c>
       <c r="X15" t="n">
-        <v>556.7848906679089</v>
+        <v>556.7848906679079</v>
       </c>
       <c r="Y15" t="n">
-        <v>444.932425721921</v>
+        <v>444.93242572192</v>
       </c>
     </row>
     <row r="16">
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>339.9988546444505</v>
+        <v>25.87312502320465</v>
       </c>
       <c r="C16" t="n">
-        <v>237.2554886889446</v>
+        <v>25.87312502320465</v>
       </c>
       <c r="D16" t="n">
-        <v>237.2554886889446</v>
+        <v>25.87312502320465</v>
       </c>
       <c r="E16" t="n">
-        <v>237.2554886889446</v>
+        <v>25.87312502320465</v>
       </c>
       <c r="F16" t="n">
-        <v>147.3913058804224</v>
+        <v>25.87312502320465</v>
       </c>
       <c r="G16" t="n">
-        <v>147.3913058804224</v>
+        <v>25.87312502320465</v>
       </c>
       <c r="H16" t="n">
-        <v>66.70637876915718</v>
+        <v>25.87312502320465</v>
       </c>
       <c r="I16" t="n">
         <v>25.87312502320465</v>
       </c>
       <c r="J16" t="n">
-        <v>53.24178608550896</v>
+        <v>53.24178608550897</v>
       </c>
       <c r="K16" t="n">
-        <v>228.9793498611959</v>
+        <v>99.52207530635712</v>
       </c>
       <c r="L16" t="n">
-        <v>262.3439601793519</v>
+        <v>383.8126146852896</v>
       </c>
       <c r="M16" t="n">
-        <v>575.3304679640513</v>
+        <v>421.1088021614411</v>
       </c>
       <c r="N16" t="n">
-        <v>882.2025091965509</v>
+        <v>727.9808433939406</v>
       </c>
       <c r="O16" t="n">
         <v>1004.92633206374</v>
@@ -5457,7 +5457,7 @@
         <v>1222.555170887664</v>
       </c>
       <c r="Q16" t="n">
-        <v>1293.656251160232</v>
+        <v>1293.656251160233</v>
       </c>
       <c r="R16" t="n">
         <v>1274.296194403674</v>
@@ -5466,22 +5466,22 @@
         <v>1153.313231200441</v>
       </c>
       <c r="T16" t="n">
-        <v>988.5794280914597</v>
+        <v>988.5794280914599</v>
       </c>
       <c r="U16" t="n">
-        <v>988.5794280914597</v>
+        <v>770.6473691213672</v>
       </c>
       <c r="V16" t="n">
-        <v>790.0618348907888</v>
+        <v>572.1297759206964</v>
       </c>
       <c r="W16" t="n">
-        <v>624.3636915957588</v>
+        <v>356.2611258303789</v>
       </c>
       <c r="X16" t="n">
-        <v>457.7451213572469</v>
+        <v>189.6425555918669</v>
       </c>
       <c r="Y16" t="n">
-        <v>457.7451213572469</v>
+        <v>33.99224638701511</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>900.3621452883574</v>
+        <v>360.8852326107151</v>
       </c>
       <c r="C17" t="n">
-        <v>900.3621452883574</v>
+        <v>360.8852326107151</v>
       </c>
       <c r="D17" t="n">
-        <v>900.3621452883574</v>
+        <v>42.90585580588777</v>
       </c>
       <c r="E17" t="n">
-        <v>573.6812737832479</v>
+        <v>25.87312502320465</v>
       </c>
       <c r="F17" t="n">
-        <v>247.0004022781383</v>
+        <v>25.87312502320465</v>
       </c>
       <c r="G17" t="n">
-        <v>25.87312502320468</v>
+        <v>25.87312502320465</v>
       </c>
       <c r="H17" t="n">
-        <v>25.87312502320468</v>
+        <v>25.87312502320465</v>
       </c>
       <c r="I17" t="n">
-        <v>25.87312502320468</v>
+        <v>25.87312502320465</v>
       </c>
       <c r="J17" t="n">
-        <v>262.0522013658835</v>
+        <v>62.29792126503641</v>
       </c>
       <c r="K17" t="n">
-        <v>349.6235656379177</v>
+        <v>149.8692855370706</v>
       </c>
       <c r="L17" t="n">
-        <v>482.2497318147638</v>
+        <v>282.4954517139167</v>
       </c>
       <c r="M17" t="n">
-        <v>802.4296539769216</v>
+        <v>450.6527502507363</v>
       </c>
       <c r="N17" t="n">
-        <v>976.3068888533514</v>
+        <v>624.5299851271661</v>
       </c>
       <c r="O17" t="n">
-        <v>1131.826311358433</v>
+        <v>863.1697505173127</v>
       </c>
       <c r="P17" t="n">
-        <v>1242.132889839195</v>
+        <v>973.476328998075</v>
       </c>
       <c r="Q17" t="n">
-        <v>1293.656251160234</v>
+        <v>1293.656251160233</v>
       </c>
       <c r="R17" t="n">
-        <v>1293.656251160234</v>
+        <v>1293.656251160233</v>
       </c>
       <c r="S17" t="n">
-        <v>1236.49725343146</v>
+        <v>1293.656251160233</v>
       </c>
       <c r="T17" t="n">
-        <v>1088.506049943685</v>
+        <v>1145.665047672458</v>
       </c>
       <c r="U17" t="n">
-        <v>900.3621452883574</v>
+        <v>957.5211430171303</v>
       </c>
       <c r="V17" t="n">
-        <v>900.3621452883574</v>
+        <v>682.8760856991535</v>
       </c>
       <c r="W17" t="n">
-        <v>900.3621452883574</v>
+        <v>682.8760856991535</v>
       </c>
       <c r="X17" t="n">
-        <v>900.3621452883574</v>
+        <v>360.8852326107151</v>
       </c>
       <c r="Y17" t="n">
-        <v>900.3621452883574</v>
+        <v>360.8852326107151</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>360.5978432594644</v>
+        <v>360.5978432594645</v>
       </c>
       <c r="C18" t="n">
-        <v>277.4053647980614</v>
+        <v>277.4053647980616</v>
       </c>
       <c r="D18" t="n">
         <v>214.7781493980468</v>
@@ -5582,64 +5582,64 @@
         <v>145.7934104874394</v>
       </c>
       <c r="F18" t="n">
-        <v>88.82335634907612</v>
+        <v>88.82335634907608</v>
       </c>
       <c r="G18" t="n">
-        <v>37.20892734684505</v>
+        <v>37.20892734684502</v>
       </c>
       <c r="H18" t="n">
-        <v>25.87312502320468</v>
+        <v>25.87312502320465</v>
       </c>
       <c r="I18" t="n">
-        <v>25.87312502320468</v>
+        <v>25.87312502320465</v>
       </c>
       <c r="J18" t="n">
-        <v>35.33588360795903</v>
+        <v>230.0708785876864</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3098813065172</v>
+        <v>298.789975420628</v>
       </c>
       <c r="L18" t="n">
-        <v>222.4743380677464</v>
+        <v>418.9544321818572</v>
       </c>
       <c r="M18" t="n">
-        <v>375.2825556288101</v>
+        <v>571.7626497429209</v>
       </c>
       <c r="N18" t="n">
-        <v>541.5007712089085</v>
+        <v>737.9808653230193</v>
       </c>
       <c r="O18" t="n">
-        <v>679.1150982212844</v>
+        <v>875.5951923353952</v>
       </c>
       <c r="P18" t="n">
-        <v>999.2950203834422</v>
+        <v>973.476328998075</v>
       </c>
       <c r="Q18" t="n">
-        <v>1257.240898739075</v>
+        <v>1293.656251160233</v>
       </c>
       <c r="R18" t="n">
-        <v>1293.656251160234</v>
+        <v>1293.656251160233</v>
       </c>
       <c r="S18" t="n">
-        <v>1244.457950916841</v>
+        <v>1244.45795091684</v>
       </c>
       <c r="T18" t="n">
         <v>1138.900638263816</v>
       </c>
       <c r="U18" t="n">
-        <v>996.3639598780287</v>
+        <v>996.3639598780285</v>
       </c>
       <c r="V18" t="n">
-        <v>841.2857102276007</v>
+        <v>841.2857102276005</v>
       </c>
       <c r="W18" t="n">
-        <v>678.6302163393924</v>
+        <v>678.6302163393923</v>
       </c>
       <c r="X18" t="n">
-        <v>556.7848906679087</v>
+        <v>556.7848906679088</v>
       </c>
       <c r="Y18" t="n">
-        <v>444.9324257219208</v>
+        <v>444.9324257219209</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>244.667621739972</v>
+        <v>194.7294132534502</v>
       </c>
       <c r="C19" t="n">
-        <v>244.667621739972</v>
+        <v>194.7294132534502</v>
       </c>
       <c r="D19" t="n">
-        <v>244.667621739972</v>
+        <v>106.5580521344698</v>
       </c>
       <c r="E19" t="n">
-        <v>156.5705615776794</v>
+        <v>106.5580521344698</v>
       </c>
       <c r="F19" t="n">
-        <v>66.70637876915721</v>
+        <v>106.5580521344698</v>
       </c>
       <c r="G19" t="n">
-        <v>66.70637876915721</v>
+        <v>106.5580521344698</v>
       </c>
       <c r="H19" t="n">
-        <v>66.70637876915721</v>
+        <v>25.87312502320465</v>
       </c>
       <c r="I19" t="n">
-        <v>25.87312502320468</v>
+        <v>25.87312502320465</v>
       </c>
       <c r="J19" t="n">
-        <v>25.87312502320468</v>
+        <v>53.24178608550897</v>
       </c>
       <c r="K19" t="n">
-        <v>36.75561605621031</v>
+        <v>228.979349861196</v>
       </c>
       <c r="L19" t="n">
-        <v>321.0461554351429</v>
+        <v>513.2698892401285</v>
       </c>
       <c r="M19" t="n">
-        <v>634.0326632198423</v>
+        <v>826.2563970248279</v>
       </c>
       <c r="N19" t="n">
-        <v>940.9047044523418</v>
+        <v>867.7731563627407</v>
       </c>
       <c r="O19" t="n">
-        <v>1004.926332063741</v>
+        <v>1144.71864503254</v>
       </c>
       <c r="P19" t="n">
-        <v>1222.555170887665</v>
+        <v>1222.555170887664</v>
       </c>
       <c r="Q19" t="n">
-        <v>1293.656251160234</v>
+        <v>1293.656251160233</v>
       </c>
       <c r="R19" t="n">
-        <v>1274.296194403675</v>
+        <v>1293.656251160233</v>
       </c>
       <c r="S19" t="n">
-        <v>1153.313231200442</v>
+        <v>1172.673287956999</v>
       </c>
       <c r="T19" t="n">
-        <v>1153.313231200442</v>
+        <v>1172.673287956999</v>
       </c>
       <c r="U19" t="n">
-        <v>935.3811722303493</v>
+        <v>954.7412289869065</v>
       </c>
       <c r="V19" t="n">
-        <v>736.8635790296785</v>
+        <v>756.2236357862357</v>
       </c>
       <c r="W19" t="n">
-        <v>520.994928939361</v>
+        <v>540.3549856959182</v>
       </c>
       <c r="X19" t="n">
-        <v>518.0641976576202</v>
+        <v>373.7364154574062</v>
       </c>
       <c r="Y19" t="n">
-        <v>362.4138884527684</v>
+        <v>218.0861062525545</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>352.553996528314</v>
+        <v>25.87312502320466</v>
       </c>
       <c r="C20" t="n">
-        <v>352.553996528314</v>
+        <v>25.87312502320466</v>
       </c>
       <c r="D20" t="n">
-        <v>352.553996528314</v>
+        <v>25.87312502320466</v>
       </c>
       <c r="E20" t="n">
-        <v>352.553996528314</v>
+        <v>25.87312502320466</v>
       </c>
       <c r="F20" t="n">
         <v>25.87312502320466</v>
@@ -5755,16 +5755,16 @@
         <v>62.29792126503641</v>
       </c>
       <c r="K20" t="n">
-        <v>149.8692855370706</v>
+        <v>382.4778434271942</v>
       </c>
       <c r="L20" t="n">
-        <v>282.4954517139167</v>
+        <v>515.1040096040402</v>
       </c>
       <c r="M20" t="n">
-        <v>602.6753738760744</v>
+        <v>683.2613081408599</v>
       </c>
       <c r="N20" t="n">
-        <v>922.8552960382322</v>
+        <v>857.1385430172897</v>
       </c>
       <c r="O20" t="n">
         <v>1131.826311358432</v>
@@ -5782,22 +5782,22 @@
         <v>1293.656251160233</v>
       </c>
       <c r="T20" t="n">
-        <v>1293.656251160233</v>
+        <v>1145.665047672458</v>
       </c>
       <c r="U20" t="n">
-        <v>1293.656251160233</v>
+        <v>957.521143017131</v>
       </c>
       <c r="V20" t="n">
-        <v>1293.656251160233</v>
+        <v>682.8760856991541</v>
       </c>
       <c r="W20" t="n">
-        <v>990.1189681070255</v>
+        <v>379.3388026459465</v>
       </c>
       <c r="X20" t="n">
-        <v>990.1189681070255</v>
+        <v>352.5539965283141</v>
       </c>
       <c r="Y20" t="n">
-        <v>663.4380966019161</v>
+        <v>25.87312502320466</v>
       </c>
     </row>
     <row r="21">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>360.5978432594644</v>
+        <v>360.5978432594643</v>
       </c>
       <c r="C21" t="n">
         <v>277.4053647980614</v>
@@ -5822,7 +5822,7 @@
         <v>88.82335634907594</v>
       </c>
       <c r="G21" t="n">
-        <v>37.20892734684504</v>
+        <v>37.20892734684503</v>
       </c>
       <c r="H21" t="n">
         <v>25.87312502320466</v>
@@ -5834,22 +5834,22 @@
         <v>230.0708785876864</v>
       </c>
       <c r="K21" t="n">
-        <v>298.7899754206282</v>
+        <v>298.7899754206284</v>
       </c>
       <c r="L21" t="n">
-        <v>418.9544321818574</v>
+        <v>418.9544321818576</v>
       </c>
       <c r="M21" t="n">
-        <v>571.7626497429211</v>
+        <v>571.7626497429213</v>
       </c>
       <c r="N21" t="n">
-        <v>737.9808653230195</v>
+        <v>737.9808653230198</v>
       </c>
       <c r="O21" t="n">
-        <v>875.5951923353955</v>
+        <v>875.5951923353957</v>
       </c>
       <c r="P21" t="n">
-        <v>973.4763289980754</v>
+        <v>973.4763289980756</v>
       </c>
       <c r="Q21" t="n">
         <v>1293.656251160233</v>
@@ -5916,19 +5916,19 @@
         <v>228.979349861196</v>
       </c>
       <c r="L22" t="n">
-        <v>513.2698892401285</v>
+        <v>387.7275110315163</v>
       </c>
       <c r="M22" t="n">
-        <v>686.4640840560284</v>
+        <v>700.7140188162157</v>
       </c>
       <c r="N22" t="n">
-        <v>727.9808433939411</v>
+        <v>1007.586060048715</v>
       </c>
       <c r="O22" t="n">
-        <v>1004.92633206374</v>
+        <v>1284.531548718514</v>
       </c>
       <c r="P22" t="n">
-        <v>1222.555170887664</v>
+        <v>1293.656251160233</v>
       </c>
       <c r="Q22" t="n">
         <v>1293.656251160233</v>
@@ -5937,25 +5937,25 @@
         <v>1274.296194403675</v>
       </c>
       <c r="S22" t="n">
-        <v>1201.004312021625</v>
+        <v>1153.313231200442</v>
       </c>
       <c r="T22" t="n">
-        <v>1036.270508912644</v>
+        <v>988.5794280914606</v>
       </c>
       <c r="U22" t="n">
-        <v>818.3384499425508</v>
+        <v>770.6473691213679</v>
       </c>
       <c r="V22" t="n">
-        <v>619.8208567418799</v>
+        <v>572.1297759206971</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8208567418799</v>
+        <v>356.2611258303796</v>
       </c>
       <c r="X22" t="n">
-        <v>453.2022865033678</v>
+        <v>335.4560197905714</v>
       </c>
       <c r="Y22" t="n">
-        <v>453.2022865033678</v>
+        <v>335.4560197905714</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1294.532982839771</v>
+        <v>1358.915674233778</v>
       </c>
       <c r="C23" t="n">
-        <v>1294.532982839771</v>
+        <v>1033.201924715214</v>
       </c>
       <c r="D23" t="n">
-        <v>976.5536060349436</v>
+        <v>715.2225479103865</v>
       </c>
       <c r="E23" t="n">
-        <v>976.5536060349436</v>
+        <v>380.1007750054359</v>
       </c>
       <c r="F23" t="n">
-        <v>627.1209195434262</v>
+        <v>283.2583276545496</v>
       </c>
       <c r="G23" t="n">
         <v>283.2583276545496</v>
       </c>
       <c r="H23" t="n">
-        <v>45.4646624549613</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="I23" t="n">
-        <v>45.4646624549613</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="J23" t="n">
-        <v>343.0422711685437</v>
+        <v>81.88945869679306</v>
       </c>
       <c r="K23" t="n">
-        <v>430.6136354405779</v>
+        <v>169.4608229688273</v>
       </c>
       <c r="L23" t="n">
-        <v>563.239801617424</v>
+        <v>732.0860208489735</v>
       </c>
       <c r="M23" t="n">
-        <v>731.3971001542436</v>
+        <v>910.2056107433422</v>
       </c>
       <c r="N23" t="n">
-        <v>905.2743350306735</v>
+        <v>1472.830808623488</v>
       </c>
       <c r="O23" t="n">
-        <v>1467.89953291082</v>
+        <v>2035.456006503634</v>
       </c>
       <c r="P23" t="n">
-        <v>2030.524730790966</v>
+        <v>2145.762584984397</v>
       </c>
       <c r="Q23" t="n">
-        <v>2273.233122748065</v>
+        <v>2197.285946305436</v>
       </c>
       <c r="R23" t="n">
         <v>2273.233122748065</v>
       </c>
       <c r="S23" t="n">
-        <v>2216.074125019291</v>
+        <v>2273.233122748065</v>
       </c>
       <c r="T23" t="n">
-        <v>2216.074125019291</v>
+        <v>2125.24191926029</v>
       </c>
       <c r="U23" t="n">
-        <v>2216.074125019291</v>
+        <v>1937.098014604963</v>
       </c>
       <c r="V23" t="n">
-        <v>1956.594933673557</v>
+        <v>1662.452957286986</v>
       </c>
       <c r="W23" t="n">
-        <v>1956.594933673557</v>
+        <v>1358.915674233778</v>
       </c>
       <c r="X23" t="n">
-        <v>1956.594933673557</v>
+        <v>1358.915674233778</v>
       </c>
       <c r="Y23" t="n">
-        <v>1627.565976572663</v>
+        <v>1358.915674233778</v>
       </c>
     </row>
     <row r="24">
@@ -6044,58 +6044,58 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>800.4806990192569</v>
+        <v>800.4806990192574</v>
       </c>
       <c r="C24" t="n">
-        <v>649.8264685793491</v>
+        <v>649.8264685793495</v>
       </c>
       <c r="D24" t="n">
-        <v>519.7375012008295</v>
+        <v>519.7375012008299</v>
       </c>
       <c r="E24" t="n">
-        <v>383.2910103117172</v>
+        <v>383.2910103117176</v>
       </c>
       <c r="F24" t="n">
-        <v>258.859204194849</v>
+        <v>258.8592041948493</v>
       </c>
       <c r="G24" t="n">
-        <v>139.783023214113</v>
+        <v>139.7830232141131</v>
       </c>
       <c r="H24" t="n">
-        <v>60.98546891196778</v>
+        <v>60.98546891196779</v>
       </c>
       <c r="I24" t="n">
-        <v>45.4646624549613</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="J24" t="n">
-        <v>54.92742103971566</v>
+        <v>249.662416019443</v>
       </c>
       <c r="K24" t="n">
-        <v>121.9014187382738</v>
+        <v>725.0765257602276</v>
       </c>
       <c r="L24" t="n">
-        <v>242.065875499503</v>
+        <v>845.2409825214568</v>
       </c>
       <c r="M24" t="n">
-        <v>804.6910733796491</v>
+        <v>998.0492000825204</v>
       </c>
       <c r="N24" t="n">
-        <v>1078.583904525413</v>
+        <v>1164.267415662619</v>
       </c>
       <c r="O24" t="n">
-        <v>1641.209102405559</v>
+        <v>1353.181091647473</v>
       </c>
       <c r="P24" t="n">
-        <v>2203.834300285705</v>
+        <v>1915.806289527619</v>
       </c>
       <c r="Q24" t="n">
-        <v>2236.817770326906</v>
+        <v>2273.233122748065</v>
       </c>
       <c r="R24" t="n">
         <v>2273.233122748065</v>
       </c>
       <c r="S24" t="n">
-        <v>2156.573070526167</v>
+        <v>2156.573070526168</v>
       </c>
       <c r="T24" t="n">
         <v>1983.554005894638</v>
@@ -6104,16 +6104,16 @@
         <v>1773.555575530346</v>
       </c>
       <c r="V24" t="n">
-        <v>1551.015573901412</v>
+        <v>1551.015573901413</v>
       </c>
       <c r="W24" t="n">
-        <v>1320.898328034699</v>
+        <v>1320.8983280347</v>
       </c>
       <c r="X24" t="n">
         <v>1131.591250384711</v>
       </c>
       <c r="Y24" t="n">
-        <v>952.2770334602183</v>
+        <v>952.2770334602187</v>
       </c>
     </row>
     <row r="25">
@@ -6138,34 +6138,34 @@
         <v>266.9504970600354</v>
       </c>
       <c r="G25" t="n">
-        <v>166.982843312179</v>
+        <v>166.9828433121791</v>
       </c>
       <c r="H25" t="n">
-        <v>86.29791620091383</v>
+        <v>86.29791620091385</v>
       </c>
       <c r="I25" t="n">
-        <v>45.4646624549613</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="J25" t="n">
-        <v>138.9525866313982</v>
+        <v>72.83332351726563</v>
       </c>
       <c r="K25" t="n">
-        <v>314.6901504070852</v>
+        <v>248.5708872929526</v>
       </c>
       <c r="L25" t="n">
-        <v>665.0999529001504</v>
+        <v>532.8614266718852</v>
       </c>
       <c r="M25" t="n">
-        <v>1008.450763364294</v>
+        <v>911.9671975707172</v>
       </c>
       <c r="N25" t="n">
-        <v>1381.442067710926</v>
+        <v>1284.958501917349</v>
       </c>
       <c r="O25" t="n">
-        <v>1658.387556380725</v>
+        <v>1592.268293266593</v>
       </c>
       <c r="P25" t="n">
-        <v>1942.135658318782</v>
+        <v>1876.016395204649</v>
       </c>
       <c r="Q25" t="n">
         <v>2013.236738591351</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1546.231148383479</v>
+        <v>823.5628641669134</v>
       </c>
       <c r="C26" t="n">
-        <v>1153.055646886409</v>
+        <v>430.9057912382935</v>
       </c>
       <c r="D26" t="n">
-        <v>767.6145181030768</v>
+        <v>45.4646624549613</v>
       </c>
       <c r="E26" t="n">
-        <v>767.6145181030768</v>
+        <v>45.4646624549613</v>
       </c>
       <c r="F26" t="n">
-        <v>350.7200796330545</v>
+        <v>45.4646624549613</v>
       </c>
       <c r="G26" t="n">
-        <v>350.7200796330545</v>
+        <v>45.4646624549613</v>
       </c>
       <c r="H26" t="n">
         <v>45.4646624549613</v>
@@ -6232,22 +6232,22 @@
         <v>905.6674690486898</v>
       </c>
       <c r="L26" t="n">
-        <v>1285.949955452776</v>
+        <v>1038.293635225536</v>
       </c>
       <c r="M26" t="n">
-        <v>1454.107253989596</v>
+        <v>1206.450933762355</v>
       </c>
       <c r="N26" t="n">
-        <v>1627.984488866026</v>
+        <v>1380.328168638785</v>
       </c>
       <c r="O26" t="n">
-        <v>1783.503911371107</v>
+        <v>1535.847591143866</v>
       </c>
       <c r="P26" t="n">
-        <v>1893.810489851869</v>
+        <v>1817.863313409239</v>
       </c>
       <c r="Q26" t="n">
-        <v>2273.233122748065</v>
+        <v>2197.285946305435</v>
       </c>
       <c r="R26" t="n">
         <v>2273.233122748065</v>
@@ -6256,22 +6256,22 @@
         <v>2148.612373040786</v>
       </c>
       <c r="T26" t="n">
-        <v>2148.612373040786</v>
+        <v>1933.159417574506</v>
       </c>
       <c r="U26" t="n">
-        <v>1893.006716406954</v>
+        <v>1933.159417574506</v>
       </c>
       <c r="V26" t="n">
-        <v>1550.899907110473</v>
+        <v>1591.052608278025</v>
       </c>
       <c r="W26" t="n">
-        <v>1550.899907110473</v>
+        <v>1220.053573246312</v>
       </c>
       <c r="X26" t="n">
-        <v>1546.231148383479</v>
+        <v>1220.053573246312</v>
       </c>
       <c r="Y26" t="n">
-        <v>1546.231148383479</v>
+        <v>823.5628641669134</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>800.4806990192569</v>
+        <v>800.4806990192574</v>
       </c>
       <c r="C27" t="n">
-        <v>649.8264685793491</v>
+        <v>649.8264685793495</v>
       </c>
       <c r="D27" t="n">
-        <v>519.7375012008295</v>
+        <v>519.7375012008297</v>
       </c>
       <c r="E27" t="n">
-        <v>383.2910103117172</v>
+        <v>383.2910103117174</v>
       </c>
       <c r="F27" t="n">
-        <v>258.859204194849</v>
+        <v>258.8592041948491</v>
       </c>
       <c r="G27" t="n">
-        <v>139.783023214113</v>
+        <v>139.7830232141132</v>
       </c>
       <c r="H27" t="n">
         <v>60.98546891196778</v>
@@ -6311,46 +6311,46 @@
         <v>725.0765257602276</v>
       </c>
       <c r="L27" t="n">
-        <v>845.2409825214568</v>
+        <v>860.1249790727759</v>
       </c>
       <c r="M27" t="n">
-        <v>1049.348549054998</v>
+        <v>1012.93319663384</v>
       </c>
       <c r="N27" t="n">
-        <v>1215.566764635097</v>
+        <v>1179.151412213938</v>
       </c>
       <c r="O27" t="n">
-        <v>1353.181091647473</v>
+        <v>1316.765739226314</v>
       </c>
       <c r="P27" t="n">
-        <v>1915.806289527619</v>
+        <v>1879.39093710646</v>
       </c>
       <c r="Q27" t="n">
-        <v>2273.233122748065</v>
+        <v>2236.817770326906</v>
       </c>
       <c r="R27" t="n">
         <v>2273.233122748065</v>
       </c>
       <c r="S27" t="n">
-        <v>2156.573070526167</v>
+        <v>2156.573070526168</v>
       </c>
       <c r="T27" t="n">
         <v>1983.554005894638</v>
       </c>
       <c r="U27" t="n">
-        <v>1773.555575530345</v>
+        <v>1773.555575530346</v>
       </c>
       <c r="V27" t="n">
-        <v>1551.015573901412</v>
+        <v>1551.015573901413</v>
       </c>
       <c r="W27" t="n">
-        <v>1320.898328034699</v>
+        <v>1320.8983280347</v>
       </c>
       <c r="X27" t="n">
         <v>1131.591250384711</v>
       </c>
       <c r="Y27" t="n">
-        <v>952.2770334602183</v>
+        <v>952.2770334602187</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>475.3717453841223</v>
+        <v>193.6113415447314</v>
       </c>
       <c r="C28" t="n">
-        <v>305.1666274501115</v>
+        <v>193.6113415447314</v>
       </c>
       <c r="D28" t="n">
-        <v>305.1666274501115</v>
+        <v>193.6113415447314</v>
       </c>
       <c r="E28" t="n">
-        <v>305.1666274501115</v>
+        <v>193.6113415447314</v>
       </c>
       <c r="F28" t="n">
-        <v>147.8406926630844</v>
+        <v>193.6113415447314</v>
       </c>
       <c r="G28" t="n">
-        <v>147.8406926630844</v>
+        <v>193.6113415447314</v>
       </c>
       <c r="H28" t="n">
         <v>45.4646624549613</v>
@@ -6414,22 +6414,22 @@
         <v>1718.395383455376</v>
       </c>
       <c r="T28" t="n">
-        <v>1718.395383455376</v>
+        <v>1486.19982836789</v>
       </c>
       <c r="U28" t="n">
-        <v>1433.001572506778</v>
+        <v>1200.806017419292</v>
       </c>
       <c r="V28" t="n">
-        <v>1167.022227327603</v>
+        <v>934.8266722401166</v>
       </c>
       <c r="W28" t="n">
-        <v>883.6918252587802</v>
+        <v>651.4962701712943</v>
       </c>
       <c r="X28" t="n">
-        <v>883.6918252587802</v>
+        <v>417.4159479542774</v>
       </c>
       <c r="Y28" t="n">
-        <v>660.5797640754236</v>
+        <v>194.3038867709207</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>574.995311545537</v>
+        <v>803.6229603948917</v>
       </c>
       <c r="C29" t="n">
-        <v>574.995311545537</v>
+        <v>803.6229603948917</v>
       </c>
       <c r="D29" t="n">
         <v>418.1818316115595</v>
@@ -6460,55 +6460,55 @@
         <v>112.9264144334662</v>
       </c>
       <c r="I29" t="n">
-        <v>45.4646624549613</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="J29" t="n">
-        <v>343.0422711685437</v>
+        <v>206.5893862142237</v>
       </c>
       <c r="K29" t="n">
-        <v>905.6674690486898</v>
+        <v>294.1607504862579</v>
       </c>
       <c r="L29" t="n">
-        <v>1038.293635225536</v>
+        <v>426.786916663104</v>
       </c>
       <c r="M29" t="n">
-        <v>1206.450933762355</v>
+        <v>989.4121145432501</v>
       </c>
       <c r="N29" t="n">
-        <v>1427.617964599169</v>
+        <v>1552.037312423396</v>
       </c>
       <c r="O29" t="n">
-        <v>1583.13738710425</v>
+        <v>1707.556734928477</v>
       </c>
       <c r="P29" t="n">
-        <v>2145.762584984396</v>
+        <v>1817.86331340924</v>
       </c>
       <c r="Q29" t="n">
-        <v>2197.285946305435</v>
+        <v>2197.285946305436</v>
       </c>
       <c r="R29" t="n">
         <v>2273.233122748065</v>
       </c>
       <c r="S29" t="n">
-        <v>2148.612373040786</v>
+        <v>2148.612373040787</v>
       </c>
       <c r="T29" t="n">
-        <v>1933.159417574506</v>
+        <v>1933.159417574507</v>
       </c>
       <c r="U29" t="n">
-        <v>1677.553760940674</v>
+        <v>1677.553760940675</v>
       </c>
       <c r="V29" t="n">
         <v>1335.446951644193</v>
       </c>
       <c r="W29" t="n">
-        <v>964.4479166124802</v>
+        <v>964.4479166124806</v>
       </c>
       <c r="X29" t="n">
-        <v>574.995311545537</v>
+        <v>964.4479166124806</v>
       </c>
       <c r="Y29" t="n">
-        <v>574.995311545537</v>
+        <v>803.6229603948917</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>800.4806990192569</v>
+        <v>800.4806990192574</v>
       </c>
       <c r="C30" t="n">
-        <v>649.826468579349</v>
+        <v>649.8264685793495</v>
       </c>
       <c r="D30" t="n">
-        <v>519.7375012008295</v>
+        <v>519.7375012008297</v>
       </c>
       <c r="E30" t="n">
-        <v>383.2910103117172</v>
+        <v>383.2910103117174</v>
       </c>
       <c r="F30" t="n">
-        <v>258.8592041948489</v>
+        <v>258.8592041948491</v>
       </c>
       <c r="G30" t="n">
-        <v>139.783023214113</v>
+        <v>139.7830232141132</v>
       </c>
       <c r="H30" t="n">
-        <v>60.98546891196778</v>
+        <v>60.98546891196793</v>
       </c>
       <c r="I30" t="n">
-        <v>45.4646624549613</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="J30" t="n">
-        <v>54.92742103971566</v>
+        <v>249.662416019443</v>
       </c>
       <c r="K30" t="n">
-        <v>121.9014187382738</v>
+        <v>725.0765257602276</v>
       </c>
       <c r="L30" t="n">
-        <v>242.065875499503</v>
+        <v>845.2409825214568</v>
       </c>
       <c r="M30" t="n">
-        <v>804.6910733796491</v>
+        <v>998.0492000825204</v>
       </c>
       <c r="N30" t="n">
-        <v>1367.316271259795</v>
+        <v>1164.267415662619</v>
       </c>
       <c r="O30" t="n">
-        <v>1504.930598272171</v>
+        <v>1316.765739226315</v>
       </c>
       <c r="P30" t="n">
-        <v>2067.555796152317</v>
+        <v>1879.390937106461</v>
       </c>
       <c r="Q30" t="n">
-        <v>2273.233122748065</v>
+        <v>2236.817770326907</v>
       </c>
       <c r="R30" t="n">
         <v>2273.233122748065</v>
@@ -6581,13 +6581,13 @@
         <v>1551.015573901413</v>
       </c>
       <c r="W30" t="n">
-        <v>1320.898328034699</v>
+        <v>1320.8983280347</v>
       </c>
       <c r="X30" t="n">
         <v>1131.591250384711</v>
       </c>
       <c r="Y30" t="n">
-        <v>952.2770334602183</v>
+        <v>952.2770334602187</v>
       </c>
     </row>
     <row r="31">
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>107.4820780358574</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="C31" t="n">
-        <v>107.4820780358574</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="D31" t="n">
-        <v>107.4820780358574</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="E31" t="n">
-        <v>107.4820780358574</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="F31" t="n">
-        <v>107.4820780358574</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="G31" t="n">
-        <v>45.4646624549613</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="H31" t="n">
-        <v>45.4646624549613</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="I31" t="n">
-        <v>45.4646624549613</v>
+        <v>45.46466245496131</v>
       </c>
       <c r="J31" t="n">
-        <v>72.83332351726561</v>
+        <v>72.83332351726563</v>
       </c>
       <c r="K31" t="n">
         <v>248.5708872929526</v>
       </c>
       <c r="L31" t="n">
-        <v>532.8614266718851</v>
+        <v>532.8614266718852</v>
       </c>
       <c r="M31" t="n">
-        <v>845.8479344565844</v>
+        <v>845.8479344565847</v>
       </c>
       <c r="N31" t="n">
         <v>1152.719975689084</v>
@@ -6645,28 +6645,28 @@
         <v>1718.395383455376</v>
       </c>
       <c r="R31" t="n">
-        <v>1631.573574720313</v>
+        <v>1718.395383455376</v>
       </c>
       <c r="S31" t="n">
-        <v>1631.573574720313</v>
+        <v>1718.395383455376</v>
       </c>
       <c r="T31" t="n">
-        <v>1399.378019632827</v>
+        <v>1522.568622743232</v>
       </c>
       <c r="U31" t="n">
-        <v>1113.984208684229</v>
+        <v>1237.174811794634</v>
       </c>
       <c r="V31" t="n">
-        <v>848.0048635050533</v>
+        <v>971.1954666154586</v>
       </c>
       <c r="W31" t="n">
-        <v>564.674461436231</v>
+        <v>687.8650645466362</v>
       </c>
       <c r="X31" t="n">
-        <v>330.5941392192141</v>
+        <v>453.7847423296192</v>
       </c>
       <c r="Y31" t="n">
-        <v>107.4820780358574</v>
+        <v>230.6726811462626</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>920.8468064933704</v>
+        <v>836.9671960307685</v>
       </c>
       <c r="C32" t="n">
-        <v>920.8468064933704</v>
+        <v>620.8773767671089</v>
       </c>
       <c r="D32" t="n">
-        <v>593.0475935346772</v>
+        <v>293.0781638084155</v>
       </c>
       <c r="E32" t="n">
-        <v>248.1059844758606</v>
+        <v>293.0781638084155</v>
       </c>
       <c r="F32" t="n">
-        <v>248.1059844758606</v>
+        <v>293.0781638084155</v>
       </c>
       <c r="G32" t="n">
-        <v>248.1059844758606</v>
+        <v>293.0781638084155</v>
       </c>
       <c r="H32" t="n">
-        <v>45.46466245496131</v>
+        <v>45.4646624549613</v>
       </c>
       <c r="I32" t="n">
-        <v>45.46466245496131</v>
+        <v>45.4646624549613</v>
       </c>
       <c r="J32" t="n">
-        <v>81.88945869679306</v>
+        <v>343.0422711685437</v>
       </c>
       <c r="K32" t="n">
-        <v>169.4608229688273</v>
+        <v>905.6674690486898</v>
       </c>
       <c r="L32" t="n">
-        <v>302.0869891456733</v>
+        <v>1038.293635225536</v>
       </c>
       <c r="M32" t="n">
-        <v>864.7121870258195</v>
+        <v>1206.450933762355</v>
       </c>
       <c r="N32" t="n">
-        <v>1096.459365666734</v>
+        <v>1380.328168638785</v>
       </c>
       <c r="O32" t="n">
-        <v>1659.08456354688</v>
+        <v>1535.847591143866</v>
       </c>
       <c r="P32" t="n">
-        <v>2221.709761427026</v>
+        <v>1893.810489851869</v>
       </c>
       <c r="Q32" t="n">
         <v>2273.233122748065</v>
@@ -6736,16 +6736,16 @@
         <v>1850.479508414591</v>
       </c>
       <c r="V32" t="n">
-        <v>1566.014614942748</v>
+        <v>1850.479508414591</v>
       </c>
       <c r="W32" t="n">
-        <v>1252.657495735675</v>
+        <v>1850.479508414591</v>
       </c>
       <c r="X32" t="n">
-        <v>920.8468064933704</v>
+        <v>1518.668819172286</v>
       </c>
       <c r="Y32" t="n">
-        <v>920.8468064933704</v>
+        <v>1179.820025917526</v>
       </c>
     </row>
     <row r="33">
@@ -6767,46 +6767,46 @@
         <v>383.2910103117174</v>
       </c>
       <c r="F33" t="n">
-        <v>258.8592041948491</v>
+        <v>258.859204194849</v>
       </c>
       <c r="G33" t="n">
-        <v>139.7830232141132</v>
+        <v>139.783023214113</v>
       </c>
       <c r="H33" t="n">
-        <v>60.98546891196779</v>
+        <v>60.98546891196776</v>
       </c>
       <c r="I33" t="n">
-        <v>45.46466245496131</v>
+        <v>45.4646624549613</v>
       </c>
       <c r="J33" t="n">
-        <v>54.92742103971567</v>
+        <v>249.662416019443</v>
       </c>
       <c r="K33" t="n">
-        <v>121.9014187382738</v>
+        <v>725.0765257602276</v>
       </c>
       <c r="L33" t="n">
-        <v>242.065875499503</v>
+        <v>845.2409825214568</v>
       </c>
       <c r="M33" t="n">
-        <v>394.8740930605667</v>
+        <v>998.0492000825204</v>
       </c>
       <c r="N33" t="n">
-        <v>957.4992909407129</v>
+        <v>1164.267415662619</v>
       </c>
       <c r="O33" t="n">
-        <v>1520.124488820859</v>
+        <v>1316.765739226314</v>
       </c>
       <c r="P33" t="n">
-        <v>2082.749686701005</v>
+        <v>1879.39093710646</v>
       </c>
       <c r="Q33" t="n">
-        <v>2273.233122748065</v>
+        <v>2236.817770326906</v>
       </c>
       <c r="R33" t="n">
         <v>2273.233122748065</v>
       </c>
       <c r="S33" t="n">
-        <v>2156.573070526168</v>
+        <v>2156.573070526167</v>
       </c>
       <c r="T33" t="n">
         <v>1983.554005894638</v>
@@ -6840,7 +6840,7 @@
         <v>592.0021180730263</v>
       </c>
       <c r="D34" t="n">
-        <v>494.01092080018</v>
+        <v>494.0109208001799</v>
       </c>
       <c r="E34" t="n">
         <v>396.0940244840214</v>
@@ -6849,22 +6849,22 @@
         <v>296.4100055216333</v>
       </c>
       <c r="G34" t="n">
-        <v>186.622515619911</v>
+        <v>186.6225156199109</v>
       </c>
       <c r="H34" t="n">
-        <v>96.1177523547798</v>
+        <v>96.11775235477978</v>
       </c>
       <c r="I34" t="n">
-        <v>45.46466245496131</v>
+        <v>45.4646624549613</v>
       </c>
       <c r="J34" t="n">
-        <v>129.3281652169942</v>
+        <v>129.3281652169944</v>
       </c>
       <c r="K34" t="n">
-        <v>361.5605706924098</v>
+        <v>361.56057069241</v>
       </c>
       <c r="L34" t="n">
-        <v>702.345951771071</v>
+        <v>702.3459517710712</v>
       </c>
       <c r="M34" t="n">
         <v>1071.827301255499</v>
@@ -6885,7 +6885,7 @@
         <v>2141.174224142781</v>
       </c>
       <c r="S34" t="n">
-        <v>2010.371424785682</v>
+        <v>2010.371424785681</v>
       </c>
       <c r="T34" t="n">
         <v>1835.817785522835</v>
@@ -6894,13 +6894,13 @@
         <v>1608.065890398876</v>
       </c>
       <c r="V34" t="n">
-        <v>1399.728461044339</v>
+        <v>1399.72846104434</v>
       </c>
       <c r="W34" t="n">
         <v>1174.039974800156</v>
       </c>
       <c r="X34" t="n">
-        <v>997.6015684077779</v>
+        <v>997.6015684077781</v>
       </c>
       <c r="Y34" t="n">
         <v>832.1314230490606</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1433.93962478689</v>
+        <v>280.8515080087897</v>
       </c>
       <c r="C35" t="n">
-        <v>1433.93962478689</v>
+        <v>280.8515080087897</v>
       </c>
       <c r="D35" t="n">
-        <v>1334.168853596135</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="E35" t="n">
-        <v>989.227244537318</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="F35" t="n">
-        <v>629.9747218919347</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="G35" t="n">
-        <v>276.2922938491921</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="H35" t="n">
         <v>28.6787924957378</v>
@@ -6970,19 +6970,19 @@
         <v>1433.93962478689</v>
       </c>
       <c r="U35" t="n">
-        <v>1433.93962478689</v>
+        <v>1235.975883977697</v>
       </c>
       <c r="V35" t="n">
-        <v>1433.93962478689</v>
+        <v>951.5109905058539</v>
       </c>
       <c r="W35" t="n">
-        <v>1433.93962478689</v>
+        <v>951.5109905058539</v>
       </c>
       <c r="X35" t="n">
-        <v>1433.93962478689</v>
+        <v>619.7003012635496</v>
       </c>
       <c r="Y35" t="n">
-        <v>1433.93962478689</v>
+        <v>280.8515080087897</v>
       </c>
     </row>
     <row r="36">
@@ -6995,13 +6995,13 @@
         <v>422.3225276551934</v>
       </c>
       <c r="C36" t="n">
-        <v>329.3102130399246</v>
+        <v>329.3102130399245</v>
       </c>
       <c r="D36" t="n">
-        <v>256.863161486044</v>
+        <v>256.8631614860438</v>
       </c>
       <c r="E36" t="n">
-        <v>178.0585864215706</v>
+        <v>178.0585864215705</v>
       </c>
       <c r="F36" t="n">
         <v>111.2686961293412</v>
@@ -7025,19 +7025,19 @@
         <v>420.0150005200069</v>
       </c>
       <c r="M36" t="n">
-        <v>774.9150576547621</v>
+        <v>572.8232180810705</v>
       </c>
       <c r="N36" t="n">
-        <v>941.1332732348606</v>
+        <v>739.041433661169</v>
       </c>
       <c r="O36" t="n">
-        <v>1296.033330369616</v>
+        <v>876.6557606735448</v>
       </c>
       <c r="P36" t="n">
-        <v>1393.914467032296</v>
+        <v>1042.624215230976</v>
       </c>
       <c r="Q36" t="n">
-        <v>1433.93962478689</v>
+        <v>1397.524272365731</v>
       </c>
       <c r="R36" t="n">
         <v>1433.93962478689</v>
@@ -7055,13 +7055,13 @@
         <v>942.2897392387932</v>
       </c>
       <c r="W36" t="n">
-        <v>769.8144091967191</v>
+        <v>769.814409196719</v>
       </c>
       <c r="X36" t="n">
-        <v>638.1492473713697</v>
+        <v>638.1492473713696</v>
       </c>
       <c r="Y36" t="n">
-        <v>516.4769462715159</v>
+        <v>516.4769462715158</v>
       </c>
     </row>
     <row r="37">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>480.4927665296595</v>
+        <v>128.1335201836059</v>
       </c>
       <c r="C37" t="n">
-        <v>367.9295644202876</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="D37" t="n">
-        <v>269.9383671474413</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="E37" t="n">
-        <v>269.9383671474413</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="F37" t="n">
-        <v>170.2543481850532</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="G37" t="n">
-        <v>119.183555760869</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="H37" t="n">
         <v>28.6787924957378</v>
@@ -7098,49 +7098,49 @@
         <v>28.6787924957378</v>
       </c>
       <c r="K37" t="n">
-        <v>204.4163562714248</v>
+        <v>39.56128352874344</v>
       </c>
       <c r="L37" t="n">
-        <v>248.4056680033991</v>
+        <v>323.851822907676</v>
       </c>
       <c r="M37" t="n">
-        <v>561.3921757880985</v>
+        <v>636.8383306923754</v>
       </c>
       <c r="N37" t="n">
-        <v>868.2642170205979</v>
+        <v>943.7103719248748</v>
       </c>
       <c r="O37" t="n">
-        <v>1145.209705690397</v>
+        <v>1220.655860594674</v>
       </c>
       <c r="P37" t="n">
-        <v>1362.838544514321</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="Q37" t="n">
         <v>1433.93962478689</v>
       </c>
       <c r="R37" t="n">
-        <v>1404.759731876466</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="S37" t="n">
-        <v>1273.956932519366</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="T37" t="n">
-        <v>1099.403293256519</v>
+        <v>1259.385985524043</v>
       </c>
       <c r="U37" t="n">
-        <v>871.6513981325606</v>
+        <v>1031.634090400084</v>
       </c>
       <c r="V37" t="n">
-        <v>871.6513981325606</v>
+        <v>823.2966610455474</v>
       </c>
       <c r="W37" t="n">
-        <v>645.9629118883772</v>
+        <v>597.6081748013639</v>
       </c>
       <c r="X37" t="n">
-        <v>645.9629118883772</v>
+        <v>421.169768408986</v>
       </c>
       <c r="Y37" t="n">
-        <v>480.4927665296595</v>
+        <v>255.6996230502683</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1396.205722831061</v>
+        <v>793.699950864213</v>
       </c>
       <c r="C38" t="n">
-        <v>1060.672137158631</v>
+        <v>793.699950864213</v>
       </c>
       <c r="D38" t="n">
-        <v>732.8729241999376</v>
+        <v>793.699950864213</v>
       </c>
       <c r="E38" t="n">
-        <v>387.9313151411212</v>
+        <v>741.6137431838637</v>
       </c>
       <c r="F38" t="n">
-        <v>28.6787924957378</v>
+        <v>382.3612205384804</v>
       </c>
       <c r="G38" t="n">
         <v>28.6787924957378</v>
@@ -7174,25 +7174,25 @@
         <v>28.6787924957378</v>
       </c>
       <c r="J38" t="n">
-        <v>65.10358873756955</v>
+        <v>250.9815028041614</v>
       </c>
       <c r="K38" t="n">
-        <v>152.6749530096038</v>
+        <v>338.5528670761956</v>
       </c>
       <c r="L38" t="n">
-        <v>285.3011191864498</v>
+        <v>471.1790332530417</v>
       </c>
       <c r="M38" t="n">
-        <v>640.201176321205</v>
+        <v>639.3363317898613</v>
       </c>
       <c r="N38" t="n">
-        <v>871.9967838260147</v>
+        <v>813.2135666662912</v>
       </c>
       <c r="O38" t="n">
-        <v>1027.516206331096</v>
+        <v>968.7329891713724</v>
       </c>
       <c r="P38" t="n">
-        <v>1382.416263465851</v>
+        <v>1079.039567652135</v>
       </c>
       <c r="Q38" t="n">
         <v>1433.93962478689</v>
@@ -7204,22 +7204,22 @@
         <v>1433.93962478689</v>
       </c>
       <c r="T38" t="n">
-        <v>1433.93962478689</v>
+        <v>1276.128585145249</v>
       </c>
       <c r="U38" t="n">
-        <v>1433.93962478689</v>
+        <v>1078.164844336056</v>
       </c>
       <c r="V38" t="n">
-        <v>1433.93962478689</v>
+        <v>793.699950864213</v>
       </c>
       <c r="W38" t="n">
-        <v>1396.205722831061</v>
+        <v>793.699950864213</v>
       </c>
       <c r="X38" t="n">
-        <v>1396.205722831061</v>
+        <v>793.699950864213</v>
       </c>
       <c r="Y38" t="n">
-        <v>1396.205722831061</v>
+        <v>793.699950864213</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>422.3225276551934</v>
+        <v>422.3225276551937</v>
       </c>
       <c r="C39" t="n">
-        <v>329.3102130399246</v>
+        <v>329.3102130399249</v>
       </c>
       <c r="D39" t="n">
-        <v>256.8631614860439</v>
+        <v>256.8631614860441</v>
       </c>
       <c r="E39" t="n">
-        <v>178.0585864215705</v>
+        <v>178.0585864215707</v>
       </c>
       <c r="F39" t="n">
         <v>111.2686961293412</v>
       </c>
       <c r="G39" t="n">
-        <v>49.83443097324414</v>
+        <v>49.83443097324412</v>
       </c>
       <c r="H39" t="n">
         <v>28.6787924957378</v>
@@ -7253,28 +7253,28 @@
         <v>28.6787924957378</v>
       </c>
       <c r="J39" t="n">
-        <v>38.14155108049216</v>
+        <v>131.1259302029238</v>
       </c>
       <c r="K39" t="n">
-        <v>393.0416082152474</v>
+        <v>198.0999279014819</v>
       </c>
       <c r="L39" t="n">
-        <v>747.9416653500026</v>
+        <v>552.9999850362371</v>
       </c>
       <c r="M39" t="n">
-        <v>900.7498829110664</v>
+        <v>705.8082025973009</v>
       </c>
       <c r="N39" t="n">
-        <v>1165.460691070633</v>
+        <v>872.0264181773994</v>
       </c>
       <c r="O39" t="n">
-        <v>1303.075018083009</v>
+        <v>1009.640745189775</v>
       </c>
       <c r="P39" t="n">
-        <v>1400.956154745689</v>
+        <v>1364.54080232453</v>
       </c>
       <c r="Q39" t="n">
-        <v>1433.93962478689</v>
+        <v>1397.524272365731</v>
       </c>
       <c r="R39" t="n">
         <v>1433.93962478689</v>
@@ -7286,19 +7286,19 @@
         <v>1259.544339582741</v>
       </c>
       <c r="U39" t="n">
-        <v>1107.187825043087</v>
+        <v>1107.187825043088</v>
       </c>
       <c r="V39" t="n">
-        <v>942.2897392387932</v>
+        <v>942.2897392387936</v>
       </c>
       <c r="W39" t="n">
-        <v>769.814409196719</v>
+        <v>769.8144091967193</v>
       </c>
       <c r="X39" t="n">
-        <v>638.1492473713696</v>
+        <v>638.1492473713699</v>
       </c>
       <c r="Y39" t="n">
-        <v>516.4769462715158</v>
+        <v>516.4769462715161</v>
       </c>
     </row>
     <row r="40">
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>589.7882529503283</v>
+        <v>302.6871594464529</v>
       </c>
       <c r="C40" t="n">
-        <v>477.2250508409564</v>
+        <v>190.123957337081</v>
       </c>
       <c r="D40" t="n">
-        <v>477.2250508409564</v>
+        <v>92.13276006423472</v>
       </c>
       <c r="E40" t="n">
-        <v>379.3081545247979</v>
+        <v>92.13276006423472</v>
       </c>
       <c r="F40" t="n">
-        <v>279.6241355624098</v>
+        <v>92.13276006423472</v>
       </c>
       <c r="G40" t="n">
-        <v>169.8366456606875</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="H40" t="n">
-        <v>79.33188239555629</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="I40" t="n">
         <v>28.6787924957378</v>
       </c>
       <c r="J40" t="n">
-        <v>28.6787924957378</v>
+        <v>56.04745355804211</v>
       </c>
       <c r="K40" t="n">
-        <v>204.4163562714248</v>
+        <v>231.7850173337291</v>
       </c>
       <c r="L40" t="n">
-        <v>456.909804385604</v>
+        <v>513.7609498979857</v>
       </c>
       <c r="M40" t="n">
-        <v>769.8963121703034</v>
+        <v>826.7474576826852</v>
       </c>
       <c r="N40" t="n">
-        <v>1076.768353402803</v>
+        <v>868.2642170205979</v>
       </c>
       <c r="O40" t="n">
-        <v>1353.713842072602</v>
+        <v>1145.209705690397</v>
       </c>
       <c r="P40" t="n">
         <v>1362.838544514321</v>
@@ -7356,28 +7356,28 @@
         <v>1433.93962478689</v>
       </c>
       <c r="R40" t="n">
-        <v>1404.759731876466</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="S40" t="n">
-        <v>1273.956932519366</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="T40" t="n">
-        <v>1099.403293256519</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="U40" t="n">
-        <v>871.6513981325606</v>
+        <v>1206.187729662931</v>
       </c>
       <c r="V40" t="n">
-        <v>663.3139687780238</v>
+        <v>997.8503003083943</v>
       </c>
       <c r="W40" t="n">
-        <v>663.3139687780238</v>
+        <v>772.1618140642108</v>
       </c>
       <c r="X40" t="n">
-        <v>663.3139687780238</v>
+        <v>595.7234076718329</v>
       </c>
       <c r="Y40" t="n">
-        <v>589.7882529503283</v>
+        <v>430.2532623131152</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>364.2123781681683</v>
+        <v>1024.107961017492</v>
       </c>
       <c r="C41" t="n">
-        <v>28.6787924957378</v>
+        <v>1024.107961017492</v>
       </c>
       <c r="D41" t="n">
-        <v>28.6787924957378</v>
+        <v>1024.107961017492</v>
       </c>
       <c r="E41" t="n">
-        <v>28.6787924957378</v>
+        <v>679.1663519586755</v>
       </c>
       <c r="F41" t="n">
-        <v>28.6787924957378</v>
+        <v>319.9138293132922</v>
       </c>
       <c r="G41" t="n">
         <v>28.6787924957378</v>
@@ -7411,25 +7411,25 @@
         <v>28.6787924957378</v>
       </c>
       <c r="J41" t="n">
-        <v>65.10358873756954</v>
+        <v>326.2564012093202</v>
       </c>
       <c r="K41" t="n">
-        <v>152.6749530096038</v>
+        <v>413.8277654813544</v>
       </c>
       <c r="L41" t="n">
-        <v>285.3011191864498</v>
+        <v>546.4539316582005</v>
       </c>
       <c r="M41" t="n">
-        <v>640.2011763212049</v>
+        <v>714.6112301950202</v>
       </c>
       <c r="N41" t="n">
-        <v>917.2096278503334</v>
+        <v>888.48846507145</v>
       </c>
       <c r="O41" t="n">
-        <v>1272.109684985089</v>
+        <v>1044.007887576531</v>
       </c>
       <c r="P41" t="n">
-        <v>1382.416263465851</v>
+        <v>1154.314466057293</v>
       </c>
       <c r="Q41" t="n">
         <v>1433.93962478689</v>
@@ -7438,25 +7438,25 @@
         <v>1433.93962478689</v>
       </c>
       <c r="S41" t="n">
-        <v>1377.724690551991</v>
+        <v>1366.96079090425</v>
       </c>
       <c r="T41" t="n">
-        <v>1377.724690551991</v>
+        <v>1366.96079090425</v>
       </c>
       <c r="U41" t="n">
-        <v>1377.724690551991</v>
+        <v>1366.96079090425</v>
       </c>
       <c r="V41" t="n">
-        <v>1377.724690551991</v>
+        <v>1366.96079090425</v>
       </c>
       <c r="W41" t="n">
-        <v>1377.724690551991</v>
+        <v>1366.96079090425</v>
       </c>
       <c r="X41" t="n">
-        <v>1045.914001309686</v>
+        <v>1366.96079090425</v>
       </c>
       <c r="Y41" t="n">
-        <v>707.0652080549262</v>
+        <v>1366.96079090425</v>
       </c>
     </row>
     <row r="42">
@@ -7469,10 +7469,10 @@
         <v>422.3225276551934</v>
       </c>
       <c r="C42" t="n">
-        <v>329.3102130399246</v>
+        <v>329.3102130399245</v>
       </c>
       <c r="D42" t="n">
-        <v>256.8631614860439</v>
+        <v>256.8631614860438</v>
       </c>
       <c r="E42" t="n">
         <v>178.0585864215705</v>
@@ -7490,25 +7490,25 @@
         <v>28.6787924957378</v>
       </c>
       <c r="J42" t="n">
-        <v>38.14155108049216</v>
+        <v>232.8765460602195</v>
       </c>
       <c r="K42" t="n">
-        <v>105.1155487790503</v>
+        <v>404.3532140746876</v>
       </c>
       <c r="L42" t="n">
-        <v>225.2800055402795</v>
+        <v>524.5176708359168</v>
       </c>
       <c r="M42" t="n">
-        <v>378.0882231013432</v>
+        <v>677.3258883969805</v>
       </c>
       <c r="N42" t="n">
-        <v>732.9882802360984</v>
+        <v>843.544103977079</v>
       </c>
       <c r="O42" t="n">
-        <v>1046.056097610934</v>
+        <v>981.1584309894549</v>
       </c>
       <c r="P42" t="n">
-        <v>1400.956154745689</v>
+        <v>1079.039567652135</v>
       </c>
       <c r="Q42" t="n">
         <v>1433.93962478689</v>
@@ -7526,16 +7526,16 @@
         <v>1107.187825043087</v>
       </c>
       <c r="V42" t="n">
-        <v>942.2897392387933</v>
+        <v>942.2897392387932</v>
       </c>
       <c r="W42" t="n">
-        <v>769.8144091967191</v>
+        <v>769.814409196719</v>
       </c>
       <c r="X42" t="n">
-        <v>638.1492473713697</v>
+        <v>638.1492473713696</v>
       </c>
       <c r="Y42" t="n">
-        <v>516.4769462715159</v>
+        <v>516.4769462715158</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>126.6699897685841</v>
+        <v>119.1835557608689</v>
       </c>
       <c r="C43" t="n">
-        <v>126.6699897685841</v>
+        <v>119.1835557608689</v>
       </c>
       <c r="D43" t="n">
-        <v>28.6787924957378</v>
+        <v>119.1835557608689</v>
       </c>
       <c r="E43" t="n">
-        <v>28.6787924957378</v>
+        <v>119.1835557608689</v>
       </c>
       <c r="F43" t="n">
-        <v>28.6787924957378</v>
+        <v>119.1835557608689</v>
       </c>
       <c r="G43" t="n">
-        <v>28.6787924957378</v>
+        <v>119.1835557608689</v>
       </c>
       <c r="H43" t="n">
         <v>28.6787924957378</v>
@@ -7569,22 +7569,22 @@
         <v>28.6787924957378</v>
       </c>
       <c r="J43" t="n">
-        <v>56.04745355804211</v>
+        <v>28.6787924957378</v>
       </c>
       <c r="K43" t="n">
-        <v>231.7850173337291</v>
+        <v>39.56128352874344</v>
       </c>
       <c r="L43" t="n">
-        <v>516.0755567126616</v>
+        <v>323.851822907676</v>
       </c>
       <c r="M43" t="n">
-        <v>561.3921757880983</v>
+        <v>636.8383306923754</v>
       </c>
       <c r="N43" t="n">
-        <v>868.2642170205977</v>
+        <v>943.7103719248748</v>
       </c>
       <c r="O43" t="n">
-        <v>1145.209705690397</v>
+        <v>1220.655860594674</v>
       </c>
       <c r="P43" t="n">
         <v>1362.838544514321</v>
@@ -7593,28 +7593,28 @@
         <v>1433.93962478689</v>
       </c>
       <c r="R43" t="n">
-        <v>1404.759731876465</v>
+        <v>1433.93962478689</v>
       </c>
       <c r="S43" t="n">
-        <v>1273.956932519366</v>
+        <v>1303.136825429791</v>
       </c>
       <c r="T43" t="n">
-        <v>1099.403293256519</v>
+        <v>1250.436021101306</v>
       </c>
       <c r="U43" t="n">
-        <v>871.6513981325604</v>
+        <v>1022.684125977347</v>
       </c>
       <c r="V43" t="n">
-        <v>663.3139687780235</v>
+        <v>814.3466966228103</v>
       </c>
       <c r="W43" t="n">
-        <v>437.6254825338401</v>
+        <v>588.6582103786269</v>
       </c>
       <c r="X43" t="n">
-        <v>261.1870761414622</v>
+        <v>412.219803986249</v>
       </c>
       <c r="Y43" t="n">
-        <v>126.6699897685841</v>
+        <v>246.7496586275313</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1086.55535224268</v>
+        <v>1082.495897432407</v>
       </c>
       <c r="C44" t="n">
-        <v>1086.55535224268</v>
+        <v>1082.495897432407</v>
       </c>
       <c r="D44" t="n">
-        <v>1086.55535224268</v>
+        <v>1082.495897432407</v>
       </c>
       <c r="E44" t="n">
-        <v>741.6137431838637</v>
+        <v>737.5542883735907</v>
       </c>
       <c r="F44" t="n">
-        <v>382.3612205384804</v>
+        <v>629.9747218919347</v>
       </c>
       <c r="G44" t="n">
-        <v>28.6787924957378</v>
+        <v>276.292293849192</v>
       </c>
       <c r="H44" t="n">
         <v>28.6787924957378</v>
@@ -7648,19 +7648,19 @@
         <v>28.6787924957378</v>
       </c>
       <c r="J44" t="n">
-        <v>65.10358873756954</v>
+        <v>287.0295057551569</v>
       </c>
       <c r="K44" t="n">
-        <v>152.6749530096038</v>
+        <v>641.9295628899122</v>
       </c>
       <c r="L44" t="n">
-        <v>507.5750101443589</v>
+        <v>774.5557290667582</v>
       </c>
       <c r="M44" t="n">
-        <v>743.3323929739036</v>
+        <v>942.7130276035778</v>
       </c>
       <c r="N44" t="n">
-        <v>917.2096278503334</v>
+        <v>1116.590262480008</v>
       </c>
       <c r="O44" t="n">
         <v>1272.109684985089</v>
@@ -7675,25 +7675,25 @@
         <v>1433.93962478689</v>
       </c>
       <c r="S44" t="n">
-        <v>1433.93962478689</v>
+        <v>1366.96079090425</v>
       </c>
       <c r="T44" t="n">
-        <v>1429.408182129438</v>
+        <v>1366.96079090425</v>
       </c>
       <c r="U44" t="n">
-        <v>1429.408182129438</v>
+        <v>1366.96079090425</v>
       </c>
       <c r="V44" t="n">
-        <v>1429.408182129438</v>
+        <v>1082.495897432407</v>
       </c>
       <c r="W44" t="n">
-        <v>1429.408182129438</v>
+        <v>1082.495897432407</v>
       </c>
       <c r="X44" t="n">
-        <v>1429.408182129438</v>
+        <v>1082.495897432407</v>
       </c>
       <c r="Y44" t="n">
-        <v>1429.408182129438</v>
+        <v>1082.495897432407</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>422.3225276551933</v>
+        <v>422.3225276551934</v>
       </c>
       <c r="C45" t="n">
         <v>329.3102130399245</v>
       </c>
       <c r="D45" t="n">
-        <v>256.8631614860437</v>
+        <v>256.8631614860438</v>
       </c>
       <c r="E45" t="n">
-        <v>178.0585864215704</v>
+        <v>178.0585864215705</v>
       </c>
       <c r="F45" t="n">
-        <v>111.2686961293411</v>
+        <v>111.2686961293412</v>
       </c>
       <c r="G45" t="n">
-        <v>49.83443097324411</v>
+        <v>49.83443097324412</v>
       </c>
       <c r="H45" t="n">
         <v>28.6787924957378</v>
@@ -7727,28 +7727,28 @@
         <v>28.6787924957378</v>
       </c>
       <c r="J45" t="n">
-        <v>102.6436160026032</v>
+        <v>232.8765460602195</v>
       </c>
       <c r="K45" t="n">
-        <v>169.6176137011614</v>
+        <v>299.8505437587777</v>
       </c>
       <c r="L45" t="n">
-        <v>524.5176708359165</v>
+        <v>420.0150005200069</v>
       </c>
       <c r="M45" t="n">
-        <v>677.3258883969803</v>
+        <v>572.8232180810705</v>
       </c>
       <c r="N45" t="n">
-        <v>843.5441039770787</v>
+        <v>739.041433661169</v>
       </c>
       <c r="O45" t="n">
-        <v>981.1584309894547</v>
+        <v>876.6557606735448</v>
       </c>
       <c r="P45" t="n">
-        <v>1079.039567652135</v>
+        <v>1042.624215230976</v>
       </c>
       <c r="Q45" t="n">
-        <v>1433.93962478689</v>
+        <v>1397.524272365731</v>
       </c>
       <c r="R45" t="n">
         <v>1433.93962478689</v>
@@ -7763,16 +7763,16 @@
         <v>1107.187825043087</v>
       </c>
       <c r="V45" t="n">
-        <v>942.2897392387931</v>
+        <v>942.2897392387932</v>
       </c>
       <c r="W45" t="n">
-        <v>769.8144091967189</v>
+        <v>769.814409196719</v>
       </c>
       <c r="X45" t="n">
-        <v>638.1492473713695</v>
+        <v>638.1492473713696</v>
       </c>
       <c r="Y45" t="n">
-        <v>516.4769462715157</v>
+        <v>516.4769462715158</v>
       </c>
     </row>
     <row r="46">
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>338.917210840344</v>
+        <v>379.3081545247978</v>
       </c>
       <c r="C46" t="n">
-        <v>226.3540087309722</v>
+        <v>379.3081545247978</v>
       </c>
       <c r="D46" t="n">
-        <v>128.3628114581259</v>
+        <v>379.3081545247978</v>
       </c>
       <c r="E46" t="n">
-        <v>128.3628114581259</v>
+        <v>379.3081545247978</v>
       </c>
       <c r="F46" t="n">
-        <v>28.6787924957378</v>
+        <v>279.6241355624097</v>
       </c>
       <c r="G46" t="n">
-        <v>28.6787924957378</v>
+        <v>169.8366456606874</v>
       </c>
       <c r="H46" t="n">
-        <v>28.6787924957378</v>
+        <v>79.33188239555628</v>
       </c>
       <c r="I46" t="n">
         <v>28.6787924957378</v>
       </c>
       <c r="J46" t="n">
-        <v>28.6787924957378</v>
+        <v>39.30349390955612</v>
       </c>
       <c r="K46" t="n">
-        <v>204.4163562714248</v>
+        <v>215.0410576852431</v>
       </c>
       <c r="L46" t="n">
-        <v>488.7068956503573</v>
+        <v>248.4056680033991</v>
       </c>
       <c r="M46" t="n">
-        <v>801.6934034350568</v>
+        <v>561.3921757880985</v>
       </c>
       <c r="N46" t="n">
-        <v>1108.565444667556</v>
+        <v>868.2642170205979</v>
       </c>
       <c r="O46" t="n">
-        <v>1353.713842072602</v>
+        <v>1145.209705690397</v>
       </c>
       <c r="P46" t="n">
         <v>1362.838544514321</v>
@@ -7830,28 +7830,28 @@
         <v>1433.93962478689</v>
       </c>
       <c r="R46" t="n">
-        <v>1433.93962478689</v>
+        <v>1404.759731876466</v>
       </c>
       <c r="S46" t="n">
-        <v>1433.93962478689</v>
+        <v>1273.956932519366</v>
       </c>
       <c r="T46" t="n">
-        <v>1433.93962478689</v>
+        <v>1099.403293256519</v>
       </c>
       <c r="U46" t="n">
-        <v>1242.417781056822</v>
+        <v>871.6513981325608</v>
       </c>
       <c r="V46" t="n">
-        <v>1034.080351702285</v>
+        <v>663.313968778024</v>
       </c>
       <c r="W46" t="n">
-        <v>808.391865458102</v>
+        <v>555.7465609171758</v>
       </c>
       <c r="X46" t="n">
-        <v>631.953459065724</v>
+        <v>379.3081545247978</v>
       </c>
       <c r="Y46" t="n">
-        <v>466.4833137070063</v>
+        <v>379.3081545247978</v>
       </c>
     </row>
   </sheetData>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>66.62260969915019</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8707,13 +8707,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>211.9932764458537</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>91.53948611559076</v>
       </c>
       <c r="R11" t="n">
-        <v>102.5176150018526</v>
+        <v>25.80329536283243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>136.3432774477586</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>155.5168753354131</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>255.0769685193767</v>
       </c>
       <c r="R12" t="n">
-        <v>34.23062064186372</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,13 +8850,13 @@
         <v>24.82742427930263</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L13" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M13" t="n">
-        <v>135.2197368916318</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>268.0356382773604</v>
@@ -8865,7 +8865,7 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P13" t="n">
-        <v>210.6102387699041</v>
+        <v>179.3097001638796</v>
       </c>
       <c r="Q13" t="n">
         <v>30.11574206669746</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>91.53948611558948</v>
       </c>
       <c r="L14" t="n">
-        <v>189.4482383690015</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>18.10147520721702</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>147.7804922078058</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1.762726398367093</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,16 +9017,16 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>14.05504945891818</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>184.4096920704864</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>290.0974263848049</v>
+        <v>290.097426384805</v>
       </c>
       <c r="R15" t="n">
         <v>34.23062064186372</v>
@@ -9087,19 +9087,19 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K16" t="n">
-        <v>166.520275497658</v>
+        <v>35.75535170489143</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M16" t="n">
-        <v>278.4750710187352</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>268.0356382773604</v>
       </c>
       <c r="O16" t="n">
-        <v>98.56553912409935</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P16" t="n">
         <v>210.6102387699041</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>201.7720001018658</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9172,19 +9172,19 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>153.5582056821598</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>83.95994230814679</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>271.3702634758773</v>
       </c>
       <c r="R17" t="n">
         <v>25.80329536283243</v>
@@ -9242,10 +9242,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1.762726398367093</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>224.5442277772505</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.2347558731637</v>
+        <v>290.097426384805</v>
       </c>
       <c r="R18" t="n">
-        <v>71.01380490566048</v>
+        <v>34.23062064186372</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,10 +9321,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>24.82742427930263</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L19" t="n">
         <v>253.4605344048249</v>
@@ -9333,13 +9333,13 @@
         <v>278.4750710187352</v>
       </c>
       <c r="N19" t="n">
-        <v>268.0356382773604</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>39.2703924010796</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P19" t="n">
-        <v>210.6102387699041</v>
+        <v>69.40588223576246</v>
       </c>
       <c r="Q19" t="n">
         <v>101.9350150692923</v>
@@ -9403,19 +9403,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>234.9581392829531</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>153.5582056821597</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>147.780492207806</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>53.99150789405914</v>
+        <v>120.3720665010719</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9482,7 +9482,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>1.762726398367334</v>
+        <v>1.762726398367562</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9564,22 +9564,22 @@
         <v>166.520275497658</v>
       </c>
       <c r="L22" t="n">
-        <v>253.4605344048249</v>
+        <v>126.6500513658226</v>
       </c>
       <c r="M22" t="n">
-        <v>137.2707144845943</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O22" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P22" t="n">
-        <v>210.6102387699041</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>101.9350150692923</v>
+        <v>30.11574206669746</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>263.7907196684351</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>434.3424562659598</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>10.06292056318088</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>392.6747101047641</v>
       </c>
       <c r="O23" t="n">
-        <v>411.2179549243079</v>
+        <v>411.2179549243081</v>
       </c>
       <c r="P23" t="n">
-        <v>456.8874943428119</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>193.1161925616771</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>25.80329536283243</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>413.9565457768509</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>108.7622379451169</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>429.3039099674446</v>
+        <v>51.81752421462465</v>
       </c>
       <c r="P24" t="n">
-        <v>469.4384456742083</v>
+        <v>469.4384456742084</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
-        <v>71.01380490566048</v>
+        <v>34.23062064186372</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9880,7 +9880,7 @@
         <v>479.852357179911</v>
       </c>
       <c r="L26" t="n">
-        <v>250.1578992194348</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>173.4435795804147</v>
       </c>
       <c r="Q26" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R26" t="n">
-        <v>25.80329536283243</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9959,10 +9959,10 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>15.03433995082737</v>
       </c>
       <c r="M27" t="n">
-        <v>51.81752421462409</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
-        <v>34.23062064186372</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>263.7907196684351</v>
+        <v>125.9595227448795</v>
       </c>
       <c r="K29" t="n">
-        <v>479.852357179911</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>398.4524235791178</v>
       </c>
       <c r="N29" t="n">
-        <v>47.7674706670544</v>
+        <v>392.6747101047641</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>456.8874943428119</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10190,31 +10190,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>413.9565457768509</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>400.4110932323713</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>15.0343399508279</v>
       </c>
       <c r="P30" t="n">
-        <v>469.4384456742083</v>
+        <v>469.4384456742084</v>
       </c>
       <c r="Q30" t="n">
-        <v>174.4382389439869</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
-        <v>34.23062064186372</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>479.852357179911</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>398.4524235791177</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>58.45448865099502</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>411.2179549243081</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>456.887494342812</v>
+        <v>250.1578992194347</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>25.80329536283243</v>
@@ -10427,10 +10427,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>400.4110932323714</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>429.3039099674447</v>
+        <v>15.03433995082744</v>
       </c>
       <c r="P33" t="n">
-        <v>469.4384456742084</v>
+        <v>469.4384456742083</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.0908747533937</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>34.23062064186372</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10673,22 +10673,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>204.1331712865571</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>219.4805354771509</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>68.77506858055688</v>
       </c>
       <c r="Q36" t="n">
-        <v>7.112815872114865</v>
+        <v>325.1682697914693</v>
       </c>
       <c r="R36" t="n">
-        <v>34.23062064186372</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10746,10 +10746,10 @@
         <v>24.82742427930263</v>
       </c>
       <c r="K37" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>10.73202163011952</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M37" t="n">
         <v>278.4750710187352</v>
@@ -10761,10 +10761,10 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P37" t="n">
-        <v>210.6102387699041</v>
+        <v>206.2212744954515</v>
       </c>
       <c r="Q37" t="n">
-        <v>101.9350150692923</v>
+        <v>30.11574206669746</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>187.7554687541332</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10831,19 +10831,19 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>188.6290490888239</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>58.50340669533327</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>247.0641198525181</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>306.4411068825417</v>
       </c>
       <c r="R38" t="n">
         <v>25.80329536283243</v>
@@ -10901,10 +10901,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>93.92361527518345</v>
       </c>
       <c r="K39" t="n">
-        <v>290.8344034709062</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>237.1066670439657</v>
@@ -10913,19 +10913,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>99.48746725198842</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>259.6150711839145</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.23062064186372</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.82742427930263</v>
+        <v>52.4725364634484</v>
       </c>
       <c r="K40" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L40" t="n">
-        <v>221.3422604000235</v>
+        <v>251.122547723334</v>
       </c>
       <c r="M40" t="n">
         <v>278.4750710187352</v>
       </c>
       <c r="N40" t="n">
-        <v>268.0356382773604</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>254.3449995307766</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q40" t="n">
         <v>101.9350150692923</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11068,19 +11068,19 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>188.6290490888238</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>104.1729461138371</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>201.3945804340141</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>230.4058559682399</v>
       </c>
       <c r="R41" t="n">
         <v>25.80329536283243</v>
@@ -11138,10 +11138,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>105.5582528443534</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,16 +11150,16 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>190.5877187420775</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>177.2257478408683</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>259.6150711839145</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>325.1682697914693</v>
       </c>
       <c r="R42" t="n">
         <v>34.23062064186372</v>
@@ -11217,16 +11217,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>52.4725364634484</v>
+        <v>24.82742427930263</v>
       </c>
       <c r="K43" t="n">
-        <v>166.520275497658</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>253.4605344048249</v>
       </c>
       <c r="M43" t="n">
-        <v>8.101446059883941</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N43" t="n">
         <v>268.0356382773604</v>
@@ -11235,7 +11235,7 @@
         <v>254.3449995307766</v>
       </c>
       <c r="P43" t="n">
-        <v>210.6102387699041</v>
+        <v>134.4020014928566</v>
       </c>
       <c r="Q43" t="n">
         <v>101.9350150692923</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>224.167592947058</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>270.0289826896172</v>
       </c>
       <c r="L44" t="n">
-        <v>224.5190817756658</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>68.28291342699495</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>201.3945804340141</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>65.1536009314253</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>237.1066670439656</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>68.77506858055688</v>
       </c>
       <c r="Q45" t="n">
-        <v>325.1682697914692</v>
+        <v>325.1682697914693</v>
       </c>
       <c r="R45" t="n">
-        <v>34.23062064186372</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,13 +11454,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>24.82742427930263</v>
+        <v>35.55944590942214</v>
       </c>
       <c r="K46" t="n">
         <v>166.520275497658</v>
       </c>
       <c r="L46" t="n">
-        <v>253.4605344048249</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>278.4750710187352</v>
@@ -11469,10 +11469,10 @@
         <v>268.0356382773604</v>
       </c>
       <c r="O46" t="n">
-        <v>222.226725525975</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q46" t="n">
         <v>101.9350150692923</v>
@@ -23260,16 +23260,16 @@
         <v>329.7026637955631</v>
       </c>
       <c r="C11" t="n">
-        <v>6.182579026916414</v>
+        <v>322.4566120233789</v>
       </c>
       <c r="D11" t="n">
-        <v>314.7995830367791</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.356492385842955</v>
+        <v>331.7705551759011</v>
       </c>
       <c r="F11" t="n">
-        <v>345.9383596266022</v>
+        <v>302.3081478932693</v>
       </c>
       <c r="G11" t="n">
         <v>340.4239659699879</v>
@@ -23311,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>146.5112914528973</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>186.262465608774</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>271.898606744797</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>300.5019102226756</v>
@@ -23326,7 +23326,7 @@
         <v>318.7709445575539</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.324604739826952</v>
+        <v>325.738667529885</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.300555247328774</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>80.86056896358512</v>
       </c>
       <c r="F13" t="n">
         <v>88.96554098043694</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>98.96797721037781</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>79.87807784015254</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>40.424921208493</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>19.16645618899275</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>119.773133571201</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>215.7527383803918</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>213.7099635894143</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>164.9523845361269</v>
       </c>
       <c r="Y13" t="n">
-        <v>154.0938061128032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.288601005504972</v>
+        <v>329.7026637955631</v>
       </c>
       <c r="C14" t="n">
-        <v>322.4566120233789</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>237.7969342790017</v>
+        <v>314.7995830367791</v>
       </c>
       <c r="E14" t="n">
-        <v>331.7705551759011</v>
+        <v>8.356492385842898</v>
       </c>
       <c r="F14" t="n">
-        <v>345.9383596266022</v>
+        <v>22.52429683654401</v>
       </c>
       <c r="G14" t="n">
         <v>340.4239659699879</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>235.4157285475924</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>56.58740775148629</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>146.5112914528973</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>186.262465608774</v>
@@ -23557,10 +23557,10 @@
         <v>271.898606744797</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>217.7800521548967</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>318.7709445575539</v>
       </c>
       <c r="Y14" t="n">
         <v>325.738667529885</v>
@@ -23579,7 +23579,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1.001865257421741e-12</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>108.5308738954961</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>101.7159322959508</v>
       </c>
       <c r="D16" t="n">
         <v>87.28964750779056</v>
@@ -23664,16 +23664,16 @@
         <v>87.21608956066967</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>88.96554098043694</v>
       </c>
       <c r="G16" t="n">
         <v>98.96797721037781</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>79.87807784015254</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>40.424921208493</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>215.7527383803918</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>49.66880172733471</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>154.0938061128032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,16 +23737,16 @@
         <v>322.4566120233789</v>
       </c>
       <c r="D17" t="n">
-        <v>314.7995830367791</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>8.356492385842614</v>
+        <v>314.9081517010447</v>
       </c>
       <c r="F17" t="n">
-        <v>22.52429683654373</v>
+        <v>345.9383596266022</v>
       </c>
       <c r="G17" t="n">
-        <v>121.5079614876036</v>
+        <v>340.4239659699879</v>
       </c>
       <c r="H17" t="n">
         <v>235.4157285475924</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>56.58740775148629</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>271.898606744797</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>300.5019102226756</v>
       </c>
       <c r="X17" t="n">
-        <v>318.7709445575539</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>325.738667529885</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>93.44567797655523</v>
       </c>
       <c r="C19" t="n">
         <v>101.7159322959508</v>
       </c>
       <c r="D19" t="n">
-        <v>87.28964750779056</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>87.21608956066967</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>88.96554098043694</v>
       </c>
       <c r="G19" t="n">
         <v>98.96797721037781</v>
       </c>
       <c r="H19" t="n">
-        <v>79.87807784015254</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>40.424921208493</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>19.16645618899275</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>162.0509605672035</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>21.92740472269708</v>
+        <v>329.7026637955631</v>
       </c>
       <c r="C20" t="n">
         <v>322.4566120233789</v>
@@ -23980,7 +23980,7 @@
         <v>331.7705551759011</v>
       </c>
       <c r="F20" t="n">
-        <v>22.5242968365439</v>
+        <v>345.9383596266022</v>
       </c>
       <c r="G20" t="n">
         <v>340.4239659699879</v>
@@ -24022,22 +24022,22 @@
         <v>56.58740775148629</v>
       </c>
       <c r="T20" t="n">
-        <v>146.5112914528973</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>186.262465608774</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>271.898606744797</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>318.7709445575539</v>
+        <v>292.2539865010978</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.324604739826782</v>
+        <v>2.324604739826725</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>116.5688040456684</v>
       </c>
       <c r="C22" t="n">
         <v>101.7159322959508</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>47.21417001297141</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>213.7099635894143</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>144.3553295567168</v>
       </c>
       <c r="Y22" t="n">
         <v>154.0938061128032</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>329.7026637955631</v>
       </c>
       <c r="C23" t="n">
-        <v>322.4566120233789</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>331.7705551759011</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>250.0643367492247</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>340.4239659699879</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>56.58740775148629</v>
       </c>
       <c r="T23" t="n">
-        <v>146.5112914528973</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>186.262465608774</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>15.01420731252045</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>300.5019102226756</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>318.7709445575539</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>325.738667529885</v>
       </c>
     </row>
     <row r="24">
@@ -24445,7 +24445,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>0.5132442827650152</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,13 +24454,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
         <v>407.2111004287077</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>302.2028630063123</v>
       </c>
       <c r="I26" t="n">
         <v>66.78713445871983</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>213.2984259116172</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.0496000674938</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>380.9360078765495</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>182.6703187304608</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
@@ -24612,13 +24612,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G28" t="n">
         <v>165.7551116690976</v>
       </c>
       <c r="H28" t="n">
-        <v>45.31294239283048</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>107.2120556672128</v>
@@ -24654,7 +24654,7 @@
         <v>186.5602680299208</v>
       </c>
       <c r="T28" t="n">
-        <v>229.873599536611</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>226.3413723608612</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>392.5258019886049</v>
+        <v>233.3090953331919</v>
       </c>
     </row>
     <row r="30">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -24852,7 +24852,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>104.3578702440105</v>
+        <v>165.7551116690976</v>
       </c>
       <c r="H31" t="n">
         <v>146.6652122988724</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>85.95359064771259</v>
       </c>
       <c r="S31" t="n">
         <v>186.5602680299208</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>36.00510643158836</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>339.4243015878903</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>332.1782498157062</v>
+        <v>118.2493287446831</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>341.4921929682283</v>
       </c>
       <c r="F32" t="n">
-        <v>355.6599974189295</v>
+        <v>355.6599974189294</v>
       </c>
       <c r="G32" t="n">
-        <v>350.1456037623152</v>
+        <v>350.1456037623151</v>
       </c>
       <c r="H32" t="n">
-        <v>44.52245753922944</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>9.7216377923273</v>
+        <v>9.721637792327286</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24976,16 +24976,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>281.6202445371242</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>310.2235480150028</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>335.4603053222123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25156,25 +25156,25 @@
         <v>339.4243015878903</v>
       </c>
       <c r="C35" t="n">
-        <v>332.1782498157062</v>
+        <v>332.1782498157061</v>
       </c>
       <c r="D35" t="n">
-        <v>225.7481573502586</v>
+        <v>74.87023247118506</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>341.4921929682283</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>355.6599974189294</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>350.1456037623151</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>245.1373663399197</v>
       </c>
       <c r="I35" t="n">
-        <v>9.7216377923273</v>
+        <v>9.721637792327286</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.3090455438136</v>
+        <v>66.30904554381357</v>
       </c>
       <c r="T35" t="n">
         <v>156.2329292452246</v>
       </c>
       <c r="U35" t="n">
-        <v>195.9841034011013</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>281.6202445371242</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>310.2235480150028</v>
       </c>
       <c r="X35" t="n">
-        <v>328.4925823498812</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>335.4603053222123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>126.2904418379957</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>12.97738967728868</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>97.01128530011785</v>
       </c>
       <c r="E37" t="n">
-        <v>96.93772735299697</v>
+        <v>96.93772735299696</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>98.68717877276423</v>
       </c>
       <c r="G37" t="n">
-        <v>58.12953050276268</v>
+        <v>108.6896150027051</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>89.59971563247983</v>
       </c>
       <c r="I37" t="n">
-        <v>50.1465590008203</v>
+        <v>50.14655900082029</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>28.88809398132003</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>129.4947713635282</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>206.2540550609915</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>174.6740223284542</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,25 +25393,25 @@
         <v>339.4243015878903</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>332.1782498157061</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>324.5212208291064</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>289.9268473646825</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>350.1456037623152</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>245.1373663399197</v>
       </c>
       <c r="I38" t="n">
-        <v>9.7216377923273</v>
+        <v>9.721637792327286</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.3090455438136</v>
+        <v>66.30904554381357</v>
       </c>
       <c r="T38" t="n">
-        <v>156.2329292452246</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>195.9841034011013</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>281.6202445371242</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>272.8669850787326</v>
+        <v>310.2235480150028</v>
       </c>
       <c r="X38" t="n">
         <v>328.4925823498812</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>126.2904418379957</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>97.01128530011786</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>96.93772735299696</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>98.68717877276423</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>45.87018710989315</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>89.59971563247983</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>50.14655900082029</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>28.88809398132003</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>129.4947713635282</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>172.8081028702184</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>223.4316013817416</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>174.6740223284542</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>91.02498523571208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>332.1782498157061</v>
       </c>
       <c r="D41" t="n">
         <v>324.5212208291064</v>
       </c>
       <c r="E41" t="n">
-        <v>341.4921929682283</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>355.6599974189295</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>350.1456037623152</v>
+        <v>61.82291731293634</v>
       </c>
       <c r="H41" t="n">
         <v>245.1373663399197</v>
       </c>
       <c r="I41" t="n">
-        <v>9.7216377923273</v>
+        <v>9.721637792327286</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>10.65626065126344</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>156.2329292452246</v>
@@ -25693,10 +25693,10 @@
         <v>310.2235480150028</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>328.4925823498812</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>335.4603053222123</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>126.2904418379957</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>111.4375700882781</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.01128530011785</v>
       </c>
       <c r="E43" t="n">
-        <v>96.93772735299697</v>
+        <v>96.93772735299696</v>
       </c>
       <c r="F43" t="n">
-        <v>98.68717877276424</v>
+        <v>98.68717877276423</v>
       </c>
       <c r="G43" t="n">
         <v>108.6896150027051</v>
       </c>
       <c r="H43" t="n">
-        <v>89.59971563247984</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>50.1465590008203</v>
+        <v>50.14655900082029</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>28.88809398132003</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>120.6343065850185</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>30.64352839598126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>339.4243015878903</v>
       </c>
       <c r="C44" t="n">
         <v>332.1782498157061</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>249.15622660209</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>245.1373663399197</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>9.721637792327272</v>
+        <v>9.721637792327286</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.30904554381357</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>151.7468010143477</v>
+        <v>156.2329292452246</v>
       </c>
       <c r="U44" t="n">
         <v>195.9841034011013</v>
       </c>
       <c r="V44" t="n">
-        <v>281.6202445371242</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>310.2235480150028</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>126.2904418379957</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>111.4375700882781</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>97.01128530011785</v>
       </c>
       <c r="E46" t="n">
-        <v>96.93772735299694</v>
+        <v>96.93772735299696</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.6896150027051</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>89.59971563247981</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>50.14655900082028</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>28.88809398132002</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>129.4947713635282</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>172.8081028702184</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>35.86775087995247</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>116.9398675995019</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>163.8154439051305</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>461628.9157436643</v>
+        <v>461628.9157436645</v>
       </c>
     </row>
     <row r="6">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>587857.8263069479</v>
+        <v>587857.8263069477</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>469698.0274080277</v>
+        <v>469698.0274080278</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>469698.0274080276</v>
+        <v>469698.0274080275</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>647637.1967329814</v>
+        <v>647637.196732981</v>
       </c>
       <c r="C2" t="n">
-        <v>647637.1967329811</v>
+        <v>647637.1967329812</v>
       </c>
       <c r="D2" t="n">
-        <v>647637.1967329814</v>
+        <v>647637.1967329812</v>
       </c>
       <c r="E2" t="n">
-        <v>449992.5902413671</v>
+        <v>449992.5902413678</v>
       </c>
       <c r="F2" t="n">
-        <v>449992.5902413676</v>
+        <v>449992.5902413672</v>
       </c>
       <c r="G2" t="n">
         <v>449992.5902413675</v>
       </c>
       <c r="H2" t="n">
-        <v>449992.5902413677</v>
+        <v>449992.5902413676</v>
       </c>
       <c r="I2" t="n">
-        <v>533046.7697937054</v>
+        <v>533046.7697937053</v>
       </c>
       <c r="J2" t="n">
         <v>431890.7938972036</v>
@@ -26343,19 +26343,19 @@
         <v>431890.7938972036</v>
       </c>
       <c r="L2" t="n">
-        <v>522599.8978220708</v>
+        <v>522599.8978220706</v>
       </c>
       <c r="M2" t="n">
         <v>448876.1573572966</v>
       </c>
       <c r="N2" t="n">
+        <v>448876.1573572963</v>
+      </c>
+      <c r="O2" t="n">
+        <v>448876.1573572962</v>
+      </c>
+      <c r="P2" t="n">
         <v>448876.1573572961</v>
-      </c>
-      <c r="O2" t="n">
-        <v>448876.1573572961</v>
-      </c>
-      <c r="P2" t="n">
-        <v>448876.1573572965</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>513720.1561898525</v>
+        <v>513720.1561898526</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>65122.51531737696</v>
+        <v>65122.51531737697</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>45652.39733311403</v>
+        <v>45652.39733311404</v>
       </c>
       <c r="M3" t="n">
-        <v>28307.25388705441</v>
+        <v>28307.25388705454</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>392571.9672256925</v>
       </c>
       <c r="E4" t="n">
+        <v>120069.3876148799</v>
+      </c>
+      <c r="F4" t="n">
+        <v>120069.3876148799</v>
+      </c>
+      <c r="G4" t="n">
         <v>120069.3876148798</v>
-      </c>
-      <c r="F4" t="n">
-        <v>120069.3876148798</v>
-      </c>
-      <c r="G4" t="n">
-        <v>120069.3876148799</v>
       </c>
       <c r="H4" t="n">
         <v>120069.3876148799</v>
@@ -26441,13 +26441,13 @@
         <v>159007.4634992525</v>
       </c>
       <c r="J4" t="n">
-        <v>94763.88961053762</v>
+        <v>94763.88961053763</v>
       </c>
       <c r="K4" t="n">
-        <v>94763.88961053763</v>
+        <v>94763.88961053766</v>
       </c>
       <c r="L4" t="n">
-        <v>152431.1832407548</v>
+        <v>152431.1832407547</v>
       </c>
       <c r="M4" t="n">
         <v>117173.5658077231</v>
@@ -26478,28 +26478,28 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>35147.85690282474</v>
+        <v>35147.85690282477</v>
       </c>
       <c r="F5" t="n">
         <v>35147.85690282474</v>
       </c>
       <c r="G5" t="n">
+        <v>35147.85690282474</v>
+      </c>
+      <c r="H5" t="n">
         <v>35147.85690282476</v>
       </c>
-      <c r="H5" t="n">
-        <v>35147.85690282475</v>
-      </c>
       <c r="I5" t="n">
-        <v>50037.42535095979</v>
+        <v>50037.4253509598</v>
       </c>
       <c r="J5" t="n">
         <v>44422.69774414967</v>
       </c>
       <c r="K5" t="n">
-        <v>44422.69774414967</v>
+        <v>44422.69774414969</v>
       </c>
       <c r="L5" t="n">
-        <v>49220.13698339664</v>
+        <v>49220.13698339663</v>
       </c>
       <c r="M5" t="n">
         <v>36462.87581438677</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>221437.6295072889</v>
+        <v>221433.2999395021</v>
       </c>
       <c r="C6" t="n">
-        <v>221437.6295072886</v>
+        <v>221433.2999395023</v>
       </c>
       <c r="D6" t="n">
-        <v>221437.6295072889</v>
+        <v>221433.2999395023</v>
       </c>
       <c r="E6" t="n">
-        <v>-218944.81046619</v>
+        <v>-219498.1528297859</v>
       </c>
       <c r="F6" t="n">
-        <v>294775.3457236631</v>
+        <v>294222.0033600662</v>
       </c>
       <c r="G6" t="n">
-        <v>294775.3457236628</v>
+        <v>294222.0033600666</v>
       </c>
       <c r="H6" t="n">
-        <v>294775.3457236631</v>
+        <v>294222.0033600665</v>
       </c>
       <c r="I6" t="n">
-        <v>258879.3656261162</v>
+        <v>258556.7293168316</v>
       </c>
       <c r="J6" t="n">
-        <v>292704.2065425163</v>
+        <v>292100.5814112973</v>
       </c>
       <c r="K6" t="n">
-        <v>292704.2065425163</v>
+        <v>292100.5814112971</v>
       </c>
       <c r="L6" t="n">
-        <v>275296.1802648053</v>
+        <v>274944.5248667107</v>
       </c>
       <c r="M6" t="n">
-        <v>266932.4618481323</v>
+        <v>266376.01828208</v>
       </c>
       <c r="N6" t="n">
-        <v>295239.7157351863</v>
+        <v>294683.2721691342</v>
       </c>
       <c r="O6" t="n">
-        <v>295239.7157351862</v>
+        <v>294683.2721691342</v>
       </c>
       <c r="P6" t="n">
-        <v>295239.7157351866</v>
+        <v>294683.2721691341</v>
       </c>
     </row>
   </sheetData>
@@ -26715,16 +26715,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="M2" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="N2" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="O2" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="P2" t="n">
         <v>57.06549666639255</v>
@@ -26798,28 +26798,28 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>323.4140627900581</v>
+        <v>323.4140627900585</v>
       </c>
       <c r="F4" t="n">
-        <v>323.4140627900581</v>
+        <v>323.4140627900582</v>
       </c>
       <c r="G4" t="n">
-        <v>323.4140627900584</v>
+        <v>323.4140627900582</v>
       </c>
       <c r="H4" t="n">
         <v>323.4140627900583</v>
       </c>
       <c r="I4" t="n">
-        <v>568.3082806870162</v>
+        <v>568.3082806870163</v>
       </c>
       <c r="J4" t="n">
         <v>568.3082806870162</v>
       </c>
       <c r="K4" t="n">
+        <v>568.3082806870163</v>
+      </c>
+      <c r="L4" t="n">
         <v>568.3082806870162</v>
-      </c>
-      <c r="L4" t="n">
-        <v>568.3082806870163</v>
       </c>
       <c r="M4" t="n">
         <v>358.4849061967225</v>
@@ -26828,10 +26828,10 @@
         <v>358.4849061967225</v>
       </c>
       <c r="O4" t="n">
-        <v>358.4849061967224</v>
+        <v>358.4849061967225</v>
       </c>
       <c r="P4" t="n">
-        <v>358.4849061967224</v>
+        <v>358.4849061967225</v>
       </c>
     </row>
   </sheetData>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>323.4140627900581</v>
+        <v>323.4140627900585</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>113.5906882997641</v>
+        <v>113.5906882997646</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>323.4140627900581</v>
+        <v>323.4140627900585</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -29219,28 +29219,28 @@
         <v>66.78713445871983</v>
       </c>
       <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
         <v>66.78713445871983</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>66.78713445871983</v>
-      </c>
-      <c r="M25" t="n">
-        <v>30.67101280751905</v>
       </c>
       <c r="N25" t="n">
         <v>66.78713445871983</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>30.67101280751899</v>
       </c>
       <c r="P25" t="n">
         <v>66.78713445871983</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>66.78713445871983</v>
       </c>
       <c r="R25" t="n">
         <v>66.78713445871983</v>
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="C32" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="D32" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="E32" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="F32" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="G32" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="H32" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="I32" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="T32" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="U32" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="V32" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="W32" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="X32" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="Y32" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="C34" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="D34" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="E34" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="F34" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="G34" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="H34" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="I34" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="J34" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="K34" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="L34" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="M34" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="N34" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="O34" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="P34" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="R34" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="S34" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="T34" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="U34" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="V34" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="W34" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="X34" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="Y34" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="C35" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="D35" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="E35" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="F35" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="G35" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="H35" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="I35" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="T35" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="U35" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="V35" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="W35" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="X35" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="Y35" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
     </row>
     <row r="36">
@@ -30064,25 +30064,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="C36" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="D36" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="E36" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="F36" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="G36" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="H36" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="I36" t="n">
         <v>15.36559839243641</v>
@@ -30115,25 +30115,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="T36" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="U36" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="V36" t="n">
         <v>57.06549666639253</v>
       </c>
       <c r="W36" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="X36" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="Y36" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
     </row>
     <row r="37">
@@ -30143,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="C37" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="D37" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="E37" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="F37" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="G37" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="H37" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="I37" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30191,28 +30191,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="S37" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="T37" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="U37" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="V37" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="W37" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="X37" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="Y37" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="C38" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="D38" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="E38" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="F38" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="G38" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="H38" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="I38" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="T38" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="U38" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="V38" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="W38" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="X38" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="Y38" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
     </row>
     <row r="39">
@@ -30301,25 +30301,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="C39" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="D39" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="E39" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="F39" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="G39" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="H39" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="I39" t="n">
         <v>15.36559839243641</v>
@@ -30352,25 +30352,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="T39" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="U39" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="V39" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="W39" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="X39" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="Y39" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
     </row>
     <row r="40">
@@ -30380,28 +30380,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="C40" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="D40" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="E40" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="F40" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="G40" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="H40" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="I40" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30428,28 +30428,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="S40" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="T40" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="U40" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="V40" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="W40" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="X40" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="C41" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="D41" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="E41" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="F41" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="G41" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="H41" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="I41" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="T41" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="U41" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="V41" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="W41" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="X41" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="Y41" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
     </row>
     <row r="42">
@@ -30538,25 +30538,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="C42" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="D42" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="E42" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="F42" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="G42" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="H42" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="I42" t="n">
         <v>15.36559839243641</v>
@@ -30589,25 +30589,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="T42" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="U42" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="V42" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="W42" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="X42" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="Y42" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
     </row>
     <row r="43">
@@ -30617,28 +30617,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="C43" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="D43" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="E43" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="F43" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="G43" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="H43" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="I43" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30665,28 +30665,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="S43" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="T43" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="U43" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="V43" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="W43" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="X43" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
       <c r="Y43" t="n">
-        <v>57.06549666639253</v>
+        <v>57.06549666639255</v>
       </c>
     </row>
     <row r="44">
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>36.79272347659773</v>
+        <v>300.5834431450328</v>
       </c>
       <c r="K11" t="n">
-        <v>155.0785332062555</v>
+        <v>88.45592350710527</v>
       </c>
       <c r="L11" t="n">
         <v>133.9658244210566</v>
@@ -35427,13 +35427,13 @@
         <v>157.0903257627083</v>
       </c>
       <c r="P11" t="n">
-        <v>323.4140627900581</v>
+        <v>111.4207863442044</v>
       </c>
       <c r="Q11" t="n">
-        <v>52.0437993141808</v>
+        <v>143.5832854297716</v>
       </c>
       <c r="R11" t="n">
-        <v>76.71431963902018</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>121.3782391527568</v>
       </c>
       <c r="M12" t="n">
-        <v>290.6950123579239</v>
+        <v>154.3517349101654</v>
       </c>
       <c r="N12" t="n">
-        <v>323.4140627900581</v>
+        <v>167.8971874546449</v>
       </c>
       <c r="O12" t="n">
         <v>139.0043707195716</v>
@@ -35509,10 +35509,10 @@
         <v>98.86983501280795</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.31663640525319</v>
+        <v>288.3936049246299</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>36.78318426379676</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>10.99241518485418</v>
+        <v>177.5126906825121</v>
       </c>
       <c r="L13" t="n">
         <v>287.1621609888207</v>
       </c>
       <c r="M13" t="n">
-        <v>172.8926535342091</v>
+        <v>37.67291664257729</v>
       </c>
       <c r="N13" t="n">
         <v>309.9717588207066</v>
@@ -35585,7 +35585,7 @@
         <v>279.7429178482822</v>
       </c>
       <c r="P13" t="n">
-        <v>219.8271099231555</v>
+        <v>188.5265713171309</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>36.79272347659773</v>
+        <v>300.5834431450328</v>
       </c>
       <c r="K14" t="n">
-        <v>88.45592350710527</v>
+        <v>179.9954096226948</v>
       </c>
       <c r="L14" t="n">
-        <v>323.4140627900581</v>
+        <v>133.9658244210566</v>
       </c>
       <c r="M14" t="n">
-        <v>187.9573323151156</v>
+        <v>169.8558571078986</v>
       </c>
       <c r="N14" t="n">
-        <v>323.4140627900581</v>
+        <v>175.6335705822523</v>
       </c>
       <c r="O14" t="n">
         <v>157.0903257627083</v>
@@ -35725,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>9.558342004802384</v>
+        <v>206.2603571358401</v>
       </c>
       <c r="K15" t="n">
-        <v>67.65050272581631</v>
+        <v>69.4132291241834</v>
       </c>
       <c r="L15" t="n">
         <v>121.3782391527568</v>
@@ -35737,16 +35737,16 @@
         <v>154.3517349101654</v>
       </c>
       <c r="N15" t="n">
-        <v>181.9522369135631</v>
+        <v>167.8971874546449</v>
       </c>
       <c r="O15" t="n">
-        <v>323.4140627900581</v>
+        <v>139.0043707195716</v>
       </c>
       <c r="P15" t="n">
         <v>98.86983501280795</v>
       </c>
       <c r="Q15" t="n">
-        <v>323.4140627900581</v>
+        <v>323.4140627900582</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,19 +35807,19 @@
         <v>27.64511218414577</v>
       </c>
       <c r="K16" t="n">
-        <v>177.5126906825121</v>
+        <v>46.74776688974561</v>
       </c>
       <c r="L16" t="n">
-        <v>33.70162658399589</v>
+        <v>287.1621609888207</v>
       </c>
       <c r="M16" t="n">
-        <v>316.1479876613125</v>
+        <v>37.67291664257729</v>
       </c>
       <c r="N16" t="n">
         <v>309.9717588207066</v>
       </c>
       <c r="O16" t="n">
-        <v>123.9634574416048</v>
+        <v>279.7429178482822</v>
       </c>
       <c r="P16" t="n">
         <v>219.8271099231555</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>238.5647235784635</v>
+        <v>36.79272347659773</v>
       </c>
       <c r="K17" t="n">
         <v>88.45592350710527</v>
@@ -35892,19 +35892,19 @@
         <v>133.9658244210566</v>
       </c>
       <c r="M17" t="n">
-        <v>323.4140627900584</v>
+        <v>169.8558571078986</v>
       </c>
       <c r="N17" t="n">
         <v>175.6335705822523</v>
       </c>
       <c r="O17" t="n">
-        <v>157.0903257627083</v>
+        <v>241.0502680708551</v>
       </c>
       <c r="P17" t="n">
         <v>111.4207863442044</v>
       </c>
       <c r="Q17" t="n">
-        <v>52.0437993141808</v>
+        <v>323.4140627900582</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>9.558342004802384</v>
+        <v>206.2603571358401</v>
       </c>
       <c r="K18" t="n">
-        <v>67.65050272581631</v>
+        <v>69.4132291241834</v>
       </c>
       <c r="L18" t="n">
         <v>121.3782391527568</v>
@@ -35980,13 +35980,13 @@
         <v>139.0043707195716</v>
       </c>
       <c r="P18" t="n">
-        <v>323.4140627900584</v>
+        <v>98.86983501280795</v>
       </c>
       <c r="Q18" t="n">
-        <v>260.5513922784169</v>
+        <v>323.4140627900582</v>
       </c>
       <c r="R18" t="n">
-        <v>36.78318426379676</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>27.64511218414577</v>
       </c>
       <c r="K19" t="n">
-        <v>10.99241518485418</v>
+        <v>177.5126906825121</v>
       </c>
       <c r="L19" t="n">
         <v>287.1621609888207</v>
@@ -36053,13 +36053,13 @@
         <v>316.1479876613125</v>
       </c>
       <c r="N19" t="n">
-        <v>309.9717588207066</v>
+        <v>41.93612054334618</v>
       </c>
       <c r="O19" t="n">
-        <v>64.6683107185851</v>
+        <v>279.7429178482822</v>
       </c>
       <c r="P19" t="n">
-        <v>219.8271099231555</v>
+        <v>78.62275338901382</v>
       </c>
       <c r="Q19" t="n">
         <v>71.81927300259481</v>
@@ -36123,19 +36123,19 @@
         <v>36.79272347659773</v>
       </c>
       <c r="K20" t="n">
-        <v>88.45592350710527</v>
+        <v>323.4140627900583</v>
       </c>
       <c r="L20" t="n">
         <v>133.9658244210566</v>
       </c>
       <c r="M20" t="n">
-        <v>323.4140627900583</v>
+        <v>169.8558571078986</v>
       </c>
       <c r="N20" t="n">
-        <v>323.4140627900583</v>
+        <v>175.6335705822523</v>
       </c>
       <c r="O20" t="n">
-        <v>211.0818336567674</v>
+        <v>277.4623922637802</v>
       </c>
       <c r="P20" t="n">
         <v>111.4207863442044</v>
@@ -36202,7 +36202,7 @@
         <v>206.2603571358401</v>
       </c>
       <c r="K21" t="n">
-        <v>69.41322912418364</v>
+        <v>69.41322912418387</v>
       </c>
       <c r="L21" t="n">
         <v>121.3782391527568</v>
@@ -36284,22 +36284,22 @@
         <v>177.5126906825121</v>
       </c>
       <c r="L22" t="n">
-        <v>287.1621609888207</v>
+        <v>160.3516779498185</v>
       </c>
       <c r="M22" t="n">
-        <v>174.9436311271716</v>
+        <v>316.1479876613125</v>
       </c>
       <c r="N22" t="n">
-        <v>41.93612054334618</v>
+        <v>309.9717588207066</v>
       </c>
       <c r="O22" t="n">
         <v>279.7429178482822</v>
       </c>
       <c r="P22" t="n">
-        <v>219.8271099231555</v>
+        <v>9.216871153251361</v>
       </c>
       <c r="Q22" t="n">
-        <v>71.81927300259481</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>300.5834431450328</v>
+        <v>36.79272347659773</v>
       </c>
       <c r="K23" t="n">
         <v>88.45592350710527</v>
       </c>
       <c r="L23" t="n">
-        <v>133.9658244210566</v>
+        <v>568.3082806870163</v>
       </c>
       <c r="M23" t="n">
-        <v>169.8558571078986</v>
+        <v>179.9187776710795</v>
       </c>
       <c r="N23" t="n">
-        <v>175.6335705822523</v>
+        <v>568.3082806870163</v>
       </c>
       <c r="O23" t="n">
-        <v>568.3082806870162</v>
+        <v>568.3082806870163</v>
       </c>
       <c r="P23" t="n">
-        <v>568.3082806870162</v>
+        <v>111.4207863442044</v>
       </c>
       <c r="Q23" t="n">
-        <v>245.1599918758579</v>
+        <v>52.0437993141808</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>76.71431963902018</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>9.558342004802384</v>
+        <v>206.2603571358401</v>
       </c>
       <c r="K24" t="n">
-        <v>67.65050272581631</v>
+        <v>480.216272465439</v>
       </c>
       <c r="L24" t="n">
         <v>121.3782391527568</v>
       </c>
       <c r="M24" t="n">
-        <v>568.3082806870162</v>
+        <v>154.3517349101654</v>
       </c>
       <c r="N24" t="n">
-        <v>276.6594253997619</v>
+        <v>167.8971874546449</v>
       </c>
       <c r="O24" t="n">
-        <v>568.3082806870162</v>
+        <v>190.8218949341963</v>
       </c>
       <c r="P24" t="n">
-        <v>568.3082806870162</v>
+        <v>568.3082806870163</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.31663640525319</v>
+        <v>361.0372052731778</v>
       </c>
       <c r="R24" t="n">
-        <v>36.78318426379676</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>94.43224664286561</v>
+        <v>27.64511218414577</v>
       </c>
       <c r="K25" t="n">
         <v>177.5126906825121</v>
       </c>
       <c r="L25" t="n">
-        <v>353.9492954475406</v>
+        <v>287.1621609888207</v>
       </c>
       <c r="M25" t="n">
-        <v>346.8190004688316</v>
+        <v>382.9351221200324</v>
       </c>
       <c r="N25" t="n">
         <v>376.7588932794264</v>
       </c>
       <c r="O25" t="n">
-        <v>279.7429178482822</v>
+        <v>310.4139306558012</v>
       </c>
       <c r="P25" t="n">
         <v>286.6142443818753</v>
       </c>
       <c r="Q25" t="n">
-        <v>71.81927300259481</v>
+        <v>138.6064074613146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,7 +36600,7 @@
         <v>568.3082806870162</v>
       </c>
       <c r="L26" t="n">
-        <v>384.1237236404914</v>
+        <v>133.9658244210566</v>
       </c>
       <c r="M26" t="n">
         <v>169.8558571078986</v>
@@ -36612,13 +36612,13 @@
         <v>157.0903257627083</v>
       </c>
       <c r="P26" t="n">
-        <v>111.4207863442044</v>
+        <v>284.8643659246191</v>
       </c>
       <c r="Q26" t="n">
         <v>383.2551847436321</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>76.71431963902018</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36679,10 +36679,10 @@
         <v>480.216272465439</v>
       </c>
       <c r="L27" t="n">
-        <v>121.3782391527568</v>
+        <v>136.4125791035841</v>
       </c>
       <c r="M27" t="n">
-        <v>206.1692591247894</v>
+        <v>154.3517349101654</v>
       </c>
       <c r="N27" t="n">
         <v>167.8971874546449</v>
@@ -36697,7 +36697,7 @@
         <v>361.0372052731778</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>36.78318426379676</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>300.5834431450328</v>
+        <v>162.7522462214772</v>
       </c>
       <c r="K29" t="n">
-        <v>568.3082806870162</v>
+        <v>88.45592350710527</v>
       </c>
       <c r="L29" t="n">
         <v>133.9658244210566</v>
       </c>
       <c r="M29" t="n">
-        <v>169.8558571078986</v>
+        <v>568.3082806870163</v>
       </c>
       <c r="N29" t="n">
-        <v>223.4010412493067</v>
+        <v>568.3082806870163</v>
       </c>
       <c r="O29" t="n">
         <v>157.0903257627083</v>
       </c>
       <c r="P29" t="n">
-        <v>568.3082806870162</v>
+        <v>111.4207863442044</v>
       </c>
       <c r="Q29" t="n">
-        <v>52.0437993141808</v>
+        <v>383.2551847436321</v>
       </c>
       <c r="R29" t="n">
         <v>76.71431963902018</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>9.558342004802384</v>
+        <v>206.2603571358401</v>
       </c>
       <c r="K30" t="n">
-        <v>67.65050272581631</v>
+        <v>480.216272465439</v>
       </c>
       <c r="L30" t="n">
         <v>121.3782391527568</v>
       </c>
       <c r="M30" t="n">
-        <v>568.3082806870162</v>
+        <v>154.3517349101654</v>
       </c>
       <c r="N30" t="n">
-        <v>568.3082806870162</v>
+        <v>167.8971874546449</v>
       </c>
       <c r="O30" t="n">
-        <v>139.0043707195716</v>
+        <v>154.0387106703995</v>
       </c>
       <c r="P30" t="n">
-        <v>568.3082806870162</v>
+        <v>568.3082806870163</v>
       </c>
       <c r="Q30" t="n">
-        <v>207.7548753492401</v>
+        <v>361.0372052731778</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>36.78318426379676</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>36.79272347659773</v>
+        <v>300.5834431450328</v>
       </c>
       <c r="K32" t="n">
-        <v>88.45592350710527</v>
+        <v>568.3082806870162</v>
       </c>
       <c r="L32" t="n">
         <v>133.9658244210566</v>
       </c>
       <c r="M32" t="n">
-        <v>568.3082806870163</v>
+        <v>169.8558571078986</v>
       </c>
       <c r="N32" t="n">
-        <v>234.0880592332473</v>
+        <v>175.6335705822523</v>
       </c>
       <c r="O32" t="n">
-        <v>568.3082806870163</v>
+        <v>157.0903257627083</v>
       </c>
       <c r="P32" t="n">
-        <v>568.3082806870163</v>
+        <v>361.5786855636391</v>
       </c>
       <c r="Q32" t="n">
-        <v>52.0437993141808</v>
+        <v>383.2551847436321</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>9.558342004802384</v>
+        <v>206.2603571358401</v>
       </c>
       <c r="K33" t="n">
-        <v>67.65050272581631</v>
+        <v>480.216272465439</v>
       </c>
       <c r="L33" t="n">
         <v>121.3782391527568</v>
@@ -37159,19 +37159,19 @@
         <v>154.3517349101654</v>
       </c>
       <c r="N33" t="n">
-        <v>568.3082806870163</v>
+        <v>167.8971874546449</v>
       </c>
       <c r="O33" t="n">
-        <v>568.3082806870163</v>
+        <v>154.0387106703991</v>
       </c>
       <c r="P33" t="n">
-        <v>568.3082806870163</v>
+        <v>568.3082806870162</v>
       </c>
       <c r="Q33" t="n">
-        <v>192.4075111586469</v>
+        <v>361.0372052731778</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>36.78318426379676</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>84.71060885053831</v>
+        <v>84.71060885053832</v>
       </c>
       <c r="K34" t="n">
         <v>234.5781873489047</v>
@@ -37235,7 +37235,7 @@
         <v>344.2276576552133</v>
       </c>
       <c r="M34" t="n">
-        <v>373.213484327705</v>
+        <v>373.2134843277051</v>
       </c>
       <c r="N34" t="n">
         <v>367.0372554870991</v>
@@ -37393,22 +37393,22 @@
         <v>121.3782391527568</v>
       </c>
       <c r="M36" t="n">
-        <v>358.4849061967225</v>
+        <v>154.3517349101654</v>
       </c>
       <c r="N36" t="n">
         <v>167.8971874546449</v>
       </c>
       <c r="O36" t="n">
+        <v>139.0043707195716</v>
+      </c>
+      <c r="P36" t="n">
+        <v>167.6449035933648</v>
+      </c>
+      <c r="Q36" t="n">
         <v>358.4849061967225</v>
       </c>
-      <c r="P36" t="n">
-        <v>98.86983501280795</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>40.42945227736806</v>
-      </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>36.78318426379676</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,10 +37466,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>177.5126906825121</v>
+        <v>10.99241518485418</v>
       </c>
       <c r="L37" t="n">
-        <v>44.43364821411541</v>
+        <v>287.1621609888207</v>
       </c>
       <c r="M37" t="n">
         <v>316.1479876613125</v>
@@ -37481,10 +37481,10 @@
         <v>279.7429178482822</v>
       </c>
       <c r="P37" t="n">
-        <v>219.8271099231555</v>
+        <v>215.4381456487029</v>
       </c>
       <c r="Q37" t="n">
-        <v>71.81927300259481</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>36.79272347659773</v>
+        <v>224.5481922307309</v>
       </c>
       <c r="K38" t="n">
         <v>88.45592350710527</v>
@@ -37551,19 +37551,19 @@
         <v>133.9658244210566</v>
       </c>
       <c r="M38" t="n">
-        <v>358.4849061967225</v>
+        <v>169.8558571078986</v>
       </c>
       <c r="N38" t="n">
-        <v>234.1369772775856</v>
+        <v>175.6335705822523</v>
       </c>
       <c r="O38" t="n">
         <v>157.0903257627083</v>
       </c>
       <c r="P38" t="n">
+        <v>111.4207863442044</v>
+      </c>
+      <c r="Q38" t="n">
         <v>358.4849061967225</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>52.0437993141808</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>9.558342004802384</v>
+        <v>103.4819572799858</v>
       </c>
       <c r="K39" t="n">
-        <v>358.4849061967225</v>
+        <v>67.65050272581631</v>
       </c>
       <c r="L39" t="n">
         <v>358.4849061967225</v>
@@ -37633,19 +37633,19 @@
         <v>154.3517349101654</v>
       </c>
       <c r="N39" t="n">
-        <v>267.3846547066333</v>
+        <v>167.8971874546449</v>
       </c>
       <c r="O39" t="n">
         <v>139.0043707195716</v>
       </c>
       <c r="P39" t="n">
-        <v>98.86983501280795</v>
+        <v>358.4849061967225</v>
       </c>
       <c r="Q39" t="n">
         <v>33.31663640525319</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>36.78318426379676</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>27.64511218414577</v>
       </c>
       <c r="K40" t="n">
         <v>177.5126906825121</v>
       </c>
       <c r="L40" t="n">
-        <v>255.0438869840194</v>
+        <v>284.8241743073299</v>
       </c>
       <c r="M40" t="n">
         <v>316.1479876613125</v>
       </c>
       <c r="N40" t="n">
-        <v>309.9717588207066</v>
+        <v>41.93612054334618</v>
       </c>
       <c r="O40" t="n">
         <v>279.7429178482822</v>
       </c>
       <c r="P40" t="n">
-        <v>9.216871153251361</v>
+        <v>219.8271099231555</v>
       </c>
       <c r="Q40" t="n">
         <v>71.81927300259481</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>36.79272347659773</v>
+        <v>300.5834431450328</v>
       </c>
       <c r="K41" t="n">
         <v>88.45592350710527</v>
@@ -37788,19 +37788,19 @@
         <v>133.9658244210566</v>
       </c>
       <c r="M41" t="n">
-        <v>358.4849061967224</v>
+        <v>169.8558571078986</v>
       </c>
       <c r="N41" t="n">
-        <v>279.8065166960894</v>
+        <v>175.6335705822523</v>
       </c>
       <c r="O41" t="n">
-        <v>358.4849061967224</v>
+        <v>157.0903257627083</v>
       </c>
       <c r="P41" t="n">
         <v>111.4207863442044</v>
       </c>
       <c r="Q41" t="n">
-        <v>52.0437993141808</v>
+        <v>282.4496552824207</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>9.558342004802384</v>
+        <v>206.2603571358401</v>
       </c>
       <c r="K42" t="n">
-        <v>67.65050272581631</v>
+        <v>173.2087555701697</v>
       </c>
       <c r="L42" t="n">
         <v>121.3782391527568</v>
@@ -37870,16 +37870,16 @@
         <v>154.3517349101654</v>
       </c>
       <c r="N42" t="n">
-        <v>358.4849061967224</v>
+        <v>167.8971874546449</v>
       </c>
       <c r="O42" t="n">
-        <v>316.2301185604399</v>
+        <v>139.0043707195716</v>
       </c>
       <c r="P42" t="n">
-        <v>358.4849061967224</v>
+        <v>98.86983501280795</v>
       </c>
       <c r="Q42" t="n">
-        <v>33.31663640525319</v>
+        <v>358.4849061967225</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>27.64511218414577</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>177.5126906825121</v>
+        <v>10.99241518485418</v>
       </c>
       <c r="L43" t="n">
         <v>287.1621609888207</v>
       </c>
       <c r="M43" t="n">
-        <v>45.77436270246123</v>
+        <v>316.1479876613125</v>
       </c>
       <c r="N43" t="n">
         <v>309.9717588207066</v>
@@ -37955,7 +37955,7 @@
         <v>279.7429178482822</v>
       </c>
       <c r="P43" t="n">
-        <v>219.8271099231555</v>
+        <v>143.618872646108</v>
       </c>
       <c r="Q43" t="n">
         <v>71.81927300259481</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>36.79272347659773</v>
+        <v>260.9603164236557</v>
       </c>
       <c r="K44" t="n">
-        <v>88.45592350710527</v>
+        <v>358.4849061967225</v>
       </c>
       <c r="L44" t="n">
-        <v>358.4849061967224</v>
+        <v>133.9658244210566</v>
       </c>
       <c r="M44" t="n">
-        <v>238.1387705348936</v>
+        <v>169.8558571078986</v>
       </c>
       <c r="N44" t="n">
         <v>175.6335705822523</v>
       </c>
       <c r="O44" t="n">
-        <v>358.4849061967224</v>
+        <v>157.0903257627083</v>
       </c>
       <c r="P44" t="n">
         <v>111.4207863442044</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>74.71194293622769</v>
+        <v>206.2603571358401</v>
       </c>
       <c r="K45" t="n">
         <v>67.65050272581631</v>
       </c>
       <c r="L45" t="n">
-        <v>358.4849061967224</v>
+        <v>121.3782391527568</v>
       </c>
       <c r="M45" t="n">
         <v>154.3517349101654</v>
@@ -38113,13 +38113,13 @@
         <v>139.0043707195716</v>
       </c>
       <c r="P45" t="n">
-        <v>98.86983501280795</v>
+        <v>167.6449035933648</v>
       </c>
       <c r="Q45" t="n">
-        <v>358.4849061967224</v>
+        <v>358.4849061967225</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>36.78318426379676</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>10.73202163011952</v>
       </c>
       <c r="K46" t="n">
         <v>177.5126906825121</v>
       </c>
       <c r="L46" t="n">
-        <v>287.1621609888207</v>
+        <v>33.70162658399589</v>
       </c>
       <c r="M46" t="n">
         <v>316.1479876613125</v>
@@ -38189,10 +38189,10 @@
         <v>309.9717588207066</v>
       </c>
       <c r="O46" t="n">
-        <v>247.6246438434805</v>
+        <v>279.7429178482822</v>
       </c>
       <c r="P46" t="n">
-        <v>9.216871153251361</v>
+        <v>219.8271099231555</v>
       </c>
       <c r="Q46" t="n">
         <v>71.81927300259481</v>
